--- a/Materials_result.xlsx
+++ b/Materials_result.xlsx
@@ -366,7 +366,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D526"/>
+  <dimension ref="A1:D524"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -380,7 +380,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -388,13 +388,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.005693338929649627</v>
+        <v>0.2746478873239437</v>
       </c>
       <c r="C2">
-        <v>0.2746478873239437</v>
+        <v>-0.0008782973308107955</v>
       </c>
       <c r="D2">
-        <v>0.005453899529087081</v>
+        <v>-0.0005369999792614295</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -402,13 +402,13 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>-0.0008782973308107955</v>
+        <v>0.2746478873239437</v>
       </c>
       <c r="C3">
-        <v>0.5492957746478874</v>
+        <v>0.009474046580775664</v>
       </c>
       <c r="D3">
-        <v>0.004225076840135077</v>
+        <v>0.005792529066098597</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -416,13 +416,13 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.009474046580775664</v>
+        <v>0.2746478873239437</v>
       </c>
       <c r="C4">
-        <v>0.823943661971831</v>
+        <v>0.007515137834888108</v>
       </c>
       <c r="D4">
-        <v>0.01003262247759823</v>
+        <v>0.004594832205349217</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -430,13 +430,13 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.007515137834888108</v>
+        <v>0.2746478873239437</v>
       </c>
       <c r="C5">
-        <v>1.098591549295775</v>
+        <v>0.01489130768576175</v>
       </c>
       <c r="D5">
-        <v>-0.002292003997429581</v>
+        <v>0.009104697962645035</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -444,13 +444,13 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.01489130768576175</v>
+        <v>0.2746478873239437</v>
       </c>
       <c r="C6">
-        <v>1.373239436619718</v>
+        <v>0.004020504297384875</v>
       </c>
       <c r="D6">
-        <v>-0.005915173737995346</v>
+        <v>0.002458177485662044</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -458,13 +458,13 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.004020504297384875</v>
+        <v>0.2746478873239437</v>
       </c>
       <c r="C7">
-        <v>1.647887323943662</v>
+        <v>0.01319317381961493</v>
       </c>
       <c r="D7">
-        <v>0.0006373496637602895</v>
+        <v>0.008066441532943541</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -472,13 +472,13 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.01319317381961493</v>
+        <v>0.2746478873239437</v>
       </c>
       <c r="C8">
-        <v>1.922535211267606</v>
+        <v>0.01001659295292789</v>
       </c>
       <c r="D8">
-        <v>-0.008607570518069825</v>
+        <v>0.006124247472125353</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -486,13 +486,13 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.01001659295292789</v>
+        <v>0.2746478873239437</v>
       </c>
       <c r="C9">
-        <v>2.197183098591549</v>
+        <v>-0.0004970728037836381</v>
       </c>
       <c r="D9">
-        <v>-0.02082144861216182</v>
+        <v>-0.0003039154008094514</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -500,13 +500,13 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>-0.0004970728037836381</v>
+        <v>0.5017182130584192</v>
       </c>
       <c r="C10">
-        <v>2.698901311649969</v>
+        <v>0.0004970728037836381</v>
       </c>
       <c r="D10">
-        <v>-0.02149908916926979</v>
+        <v>0.0003283547269700827</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -514,13 +514,13 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.0004970728037836381</v>
+        <v>0.5017182130584192</v>
       </c>
       <c r="C11">
-        <v>3.200619524708388</v>
+        <v>-0.007843829625652887</v>
       </c>
       <c r="D11">
-        <v>-0.02686710918006364</v>
+        <v>-0.005181451319658536</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -528,13 +528,13 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>-0.007843829625652887</v>
+        <v>0.5017182130584192</v>
       </c>
       <c r="C12">
-        <v>3.702337737766807</v>
+        <v>-0.0003061295508492989</v>
       </c>
       <c r="D12">
-        <v>-0.01846477311037613</v>
+        <v>-0.000202222057456092</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -542,13 +542,13 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>-0.0003061295508492989</v>
+        <v>0.5017182130584192</v>
       </c>
       <c r="C13">
-        <v>4.204055950825227</v>
+        <v>-0.0005846895047749712</v>
       </c>
       <c r="D13">
-        <v>-0.03308651677029279</v>
+        <v>-0.0003862322807469959</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -556,13 +556,13 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>-0.0005846895047749712</v>
+        <v>0.5017182130584192</v>
       </c>
       <c r="C14">
-        <v>4.705774163883646</v>
+        <v>0.01303229434938835</v>
       </c>
       <c r="D14">
-        <v>-0.02768779526995432</v>
+        <v>0.008608830377189148</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -570,13 +570,13 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.01303229434938835</v>
+        <v>0.5017182130584192</v>
       </c>
       <c r="C15">
-        <v>5.207492376942065</v>
+        <v>-0.004629000082299051</v>
       </c>
       <c r="D15">
-        <v>-0.02913407735126113</v>
+        <v>-0.003057809734505991</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -584,13 +584,13 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>-0.004629000082299051</v>
+        <v>0.5017182130584192</v>
       </c>
       <c r="C16">
-        <v>5.709210590000485</v>
+        <v>0.004711466374249795</v>
       </c>
       <c r="D16">
-        <v>-0.02029519872381002</v>
+        <v>0.00311228504792408</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -598,13 +598,13 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.004711466374249795</v>
+        <v>0.5017182130584192</v>
       </c>
       <c r="C17">
-        <v>6.210928803058904</v>
+        <v>-0.006093292815660512</v>
       </c>
       <c r="D17">
-        <v>-0.02361059841463373</v>
+        <v>-0.004025087439114551</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -612,13 +612,13 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>-0.006093292815660512</v>
+        <v>0.5017182130584192</v>
       </c>
       <c r="C18">
-        <v>6.712647016117323</v>
+        <v>0.001133238557409655</v>
       </c>
       <c r="D18">
-        <v>-0.03338097792582083</v>
+        <v>0.0007485910198220866</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -626,13 +626,13 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.001133238557409655</v>
+        <v>0.5017182130584192</v>
       </c>
       <c r="C19">
-        <v>7.214365229175742</v>
+        <v>-0.006763150120573158</v>
       </c>
       <c r="D19">
-        <v>-0.02341625951119188</v>
+        <v>-0.00446757958672206</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -640,13 +640,13 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>-0.006763150120573158</v>
+        <v>0.5017182130584192</v>
       </c>
       <c r="C20">
-        <v>7.716083442234162</v>
+        <v>0.004384633082535672</v>
       </c>
       <c r="D20">
-        <v>-0.02780268599875738</v>
+        <v>0.002896386581042282</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -654,13 +654,13 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.004384633082535672</v>
+        <v>0.5017182130584192</v>
       </c>
       <c r="C21">
-        <v>8.217801655292581</v>
+        <v>-0.005664793555697045</v>
       </c>
       <c r="D21">
-        <v>-0.03805233865131472</v>
+        <v>-0.003742030799440841</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -668,13 +668,13 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>-0.005664793555697045</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C22">
-        <v>8.939974406850906</v>
+        <v>-0.01303360893101058</v>
       </c>
       <c r="D22">
-        <v>-0.03474336467247591</v>
+        <v>-0.009198818321478357</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -682,13 +682,13 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>-0.01303360893101058</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C23">
-        <v>9.662147158409232</v>
+        <v>0.008204367337664387</v>
       </c>
       <c r="D23">
-        <v>-0.04087897270723554</v>
+        <v>0.005790451822003078</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -696,13 +696,13 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.008204367337664387</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C24">
-        <v>10.38431990996756</v>
+        <v>-0.001848532903705014</v>
       </c>
       <c r="D24">
-        <v>-0.04125809764267054</v>
+        <v>-0.001304651569067664</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -710,13 +710,13 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>-0.001848532903705014</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C25">
-        <v>11.10649266152588</v>
+        <v>0.008736361476019638</v>
       </c>
       <c r="D25">
-        <v>-0.04048012728315154</v>
+        <v>0.006165920922904047</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -724,13 +724,13 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.008736361476019638</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C26">
-        <v>11.82866541308421</v>
+        <v>-0.01854008537585905</v>
       </c>
       <c r="D26">
-        <v>-0.04874504535735655</v>
+        <v>-0.01308516144223468</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -738,13 +738,13 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>-0.01854008537585905</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C27">
-        <v>12.55083816464253</v>
+        <v>-0.005450378269672207</v>
       </c>
       <c r="D27">
-        <v>-0.02639587791732587</v>
+        <v>-0.003846750332270463</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -752,13 +752,13 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>-0.005450378269672207</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C28">
-        <v>13.27301091620086</v>
+        <v>0.009857040579851706</v>
       </c>
       <c r="D28">
-        <v>-0.008297264967849754</v>
+        <v>0.006956870193163382</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -766,13 +766,13 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0.009857040579851706</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C29">
-        <v>13.99518366775918</v>
+        <v>-0.0139072457742575</v>
       </c>
       <c r="D29">
-        <v>-0.003113147399262231</v>
+        <v>-0.009815410904738813</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -780,13 +780,13 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>-0.0139072457742575</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C30">
-        <v>14.71735641931751</v>
+        <v>-0.01837348524059745</v>
       </c>
       <c r="D30">
-        <v>0.004345777465416798</v>
+        <v>-0.01296757893805513</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -794,13 +794,13 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>-0.01837348524059745</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C31">
-        <v>15.43952917087583</v>
+        <v>-0.001019382924779322</v>
       </c>
       <c r="D31">
-        <v>0.008988593156084614</v>
+        <v>-0.0007194567809036721</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -808,13 +808,13 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>-0.001019382924779322</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C32">
-        <v>16.16170192243416</v>
+        <v>-0.008075177734683692</v>
       </c>
       <c r="D32">
-        <v>0.009950238394606743</v>
+        <v>-0.005699272802198684</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -822,13 +822,13 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>-0.008075177734683692</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C33">
-        <v>16.88387467399249</v>
+        <v>0.01263973625523729</v>
       </c>
       <c r="D33">
-        <v>0.009506574986561855</v>
+        <v>0.008920832139338697</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -836,13 +836,13 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>0.01263973625523729</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C34">
-        <v>17.60604742555081</v>
+        <v>-0.02199566667176978</v>
       </c>
       <c r="D34">
-        <v>0.01157447557142752</v>
+        <v>-0.01552403042353048</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -850,13 +850,13 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>-0.02199566667176978</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C35">
-        <v>18.32822017710914</v>
+        <v>0.008121362358491702</v>
       </c>
       <c r="D35">
-        <v>0.0153978788463405</v>
+        <v>0.005731868836490068</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -864,13 +864,13 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>0.008121362358491702</v>
+        <v>0.5017182130584192</v>
       </c>
       <c r="C36">
-        <v>18.82993839016756</v>
+        <v>-0.002385265497713007</v>
       </c>
       <c r="D36">
-        <v>0.01227462571343788</v>
+        <v>-0.001575650881100354</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -878,13 +878,13 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>-0.002385265497713007</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C37">
-        <v>19.55211114172588</v>
+        <v>0.01329643252976798</v>
       </c>
       <c r="D37">
-        <v>0.006002339459079506</v>
+        <v>0.009384313110248193</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -892,13 +892,13 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>0.01329643252976798</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C38">
-        <v>20.27428389328421</v>
+        <v>-0.004987396043808268</v>
       </c>
       <c r="D38">
-        <v>0.01107655196316077</v>
+        <v>-0.003519988235575743</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -906,13 +906,13 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>-0.004987396043808268</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C39">
-        <v>20.99645664484253</v>
+        <v>-0.01469770062881715</v>
       </c>
       <c r="D39">
-        <v>0.00796995227525826</v>
+        <v>-0.01037329557328402</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -920,13 +920,13 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>-0.01469770062881715</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C40">
-        <v>21.71862939640086</v>
+        <v>0.01499004700288076</v>
       </c>
       <c r="D40">
-        <v>0.01594752111923759</v>
+        <v>0.01057962685084412</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -934,13 +934,13 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>0.01499004700288076</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C41">
-        <v>22.44080214795918</v>
+        <v>-0.006598554669317913</v>
       </c>
       <c r="D41">
-        <v>0.01380134144186887</v>
+        <v>-0.004657106554960279</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -948,13 +948,13 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>-0.006598554669317913</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C42">
-        <v>23.16297489951751</v>
+        <v>-0.01541867703953148</v>
       </c>
       <c r="D42">
-        <v>0.01677113334934568</v>
+        <v>-0.01088214397063413</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -962,13 +962,13 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>-0.01541867703953148</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C43">
-        <v>23.88514765107583</v>
+        <v>0.004977729767183803</v>
       </c>
       <c r="D43">
-        <v>0.01677113334934568</v>
+        <v>0.003513166002149509</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -976,13 +976,13 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>0.004977729767183803</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C44">
-        <v>24.60732040263416</v>
+        <v>-0.009229869726903317</v>
       </c>
       <c r="D44">
-        <v>0.01554449456117775</v>
+        <v>-0.006514227578724319</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -990,13 +990,13 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>-0.009229869726903317</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C45">
-        <v>25.32949315419248</v>
+        <v>-0.000570322247519961</v>
       </c>
       <c r="D45">
-        <v>0.01784943678887319</v>
+        <v>-0.0004025201897189771</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1004,13 +1004,13 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>-0.000570322247519961</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C46">
-        <v>26.05166590575081</v>
+        <v>0.001170310265758978</v>
       </c>
       <c r="D46">
-        <v>0.02352275100667896</v>
+        <v>0.0008259777910678175</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1018,13 +1018,13 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>0.001170310265758978</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C47">
-        <v>26.77383865730913</v>
+        <v>-0.01243301669472263</v>
       </c>
       <c r="D47">
-        <v>0.02806995721166096</v>
+        <v>-0.008774934277070802</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1032,13 +1032,13 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>-0.01243301669472263</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C48">
-        <v>27.49601140886746</v>
+        <v>0.0336201241682339</v>
       </c>
       <c r="D48">
-        <v>0.02715219639487886</v>
+        <v>0.02372830240696412</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1046,13 +1046,13 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>0.0336201241682339</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C49">
-        <v>28.21818416042579</v>
+        <v>0.02722596339514283</v>
       </c>
       <c r="D49">
-        <v>0.03051114287295385</v>
+        <v>0.01921545231445887</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1060,13 +1060,13 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>0.02722596339514283</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C50">
-        <v>28.94035691198411</v>
+        <v>0.007798531056081082</v>
       </c>
       <c r="D50">
-        <v>0.0269901069930814</v>
+        <v>0.005504022004881068</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1074,13 +1074,13 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>0.007798531056081082</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C51">
-        <v>29.66252966354244</v>
+        <v>0.01122055131516309</v>
       </c>
       <c r="D51">
-        <v>0.01992799642183078</v>
+        <v>0.007919204386241111</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1088,13 +1088,13 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>0.01122055131516309</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C52">
-        <v>30.38470241510076</v>
+        <v>0.006984244063199085</v>
       </c>
       <c r="D52">
-        <v>0.01315797314208133</v>
+        <v>0.004929317166895443</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1102,13 +1102,13 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>0.006984244063199085</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C53">
-        <v>31.10687516665909</v>
+        <v>0.00144661461826967</v>
       </c>
       <c r="D53">
-        <v>0.01190621756369615</v>
+        <v>0.001020986982584391</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1116,13 +1116,13 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>0.00144661461826967</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C54">
-        <v>31.82904791821741</v>
+        <v>-0.0006674082561417549</v>
       </c>
       <c r="D54">
-        <v>0.01475605460941463</v>
+        <v>-0.0004710412386162236</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1130,13 +1130,13 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>-0.0006674082561417549</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C55">
-        <v>32.55122066977574</v>
+        <v>0.003110767979044304</v>
       </c>
       <c r="D55">
-        <v>0.02152806549460787</v>
+        <v>0.002195507754680056</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1144,13 +1144,13 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>0.003110767979044304</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C56">
-        <v>33.27339342133406</v>
+        <v>0.005751592008638617</v>
       </c>
       <c r="D56">
-        <v>0.02268933780369372</v>
+        <v>0.004059339989927959</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1158,13 +1158,13 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>0.005751592008638617</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C57">
-        <v>33.99556617289239</v>
+        <v>-0.004698347641753031</v>
       </c>
       <c r="D57">
-        <v>0.02393906611232608</v>
+        <v>-0.003315984590024166</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1172,13 +1172,13 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>-0.004698347641753031</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C58">
-        <v>34.71773892445071</v>
+        <v>-0.009435476433566237</v>
       </c>
       <c r="D58">
-        <v>0.01803202685467295</v>
+        <v>-0.006659340014603047</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1186,13 +1186,13 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>-0.009435476433566237</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C59">
-        <v>35.43991167600904</v>
+        <v>0.007633199531972501</v>
       </c>
       <c r="D59">
-        <v>0.02087395722170185</v>
+        <v>0.005387334856974595</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1200,13 +1200,13 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>0.007633199531972501</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C60">
-        <v>36.16208442756736</v>
+        <v>-0.004673295662065868</v>
       </c>
       <c r="D60">
-        <v>0.02252615641442545</v>
+        <v>-0.003298303484893931</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1214,13 +1214,13 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>-0.004673295662065868</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C61">
-        <v>36.88425717912569</v>
+        <v>0.012000753755812</v>
       </c>
       <c r="D61">
-        <v>0.02083759899441799</v>
+        <v>0.008469853139283518</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1228,13 +1228,13 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>0.012000753755812</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C62">
-        <v>37.60642993068402</v>
+        <v>-0.003228524169148095</v>
       </c>
       <c r="D62">
-        <v>0.033906681432757</v>
+        <v>-0.002278617337354196</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1242,13 +1242,13 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>-0.003228524169148095</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C63">
-        <v>38.32860268224234</v>
+        <v>0.004467494055476529</v>
       </c>
       <c r="D63">
-        <v>0.03376406061084569</v>
+        <v>0.003153053493176025</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1256,13 +1256,13 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>0.004467494055476529</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C64">
-        <v>39.05077543380067</v>
+        <v>0</v>
       </c>
       <c r="D64">
-        <v>0.02859125667464589</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -1270,13 +1270,13 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>0</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C65">
-        <v>39.77294818535899</v>
+        <v>-0.001845247635216651</v>
       </c>
       <c r="D65">
-        <v>0.02887869527529372</v>
+        <v>-0.001302332902908377</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -1284,13 +1284,13 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>-0.001845247635216651</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C66">
-        <v>40.49512093691732</v>
+        <v>0.003467352602894991</v>
       </c>
       <c r="D66">
-        <v>0.02664778841006391</v>
+        <v>0.002447176896235374</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -1298,13 +1298,13 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>0.003467352602894991</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C67">
-        <v>41.21729368847564</v>
+        <v>0.008534435520242134</v>
       </c>
       <c r="D67">
-        <v>0.03056489162836029</v>
+        <v>0.00602340627547062</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -1312,13 +1312,13 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>0.008534435520242134</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C68">
-        <v>41.93946644003397</v>
+        <v>0.006840417552030686</v>
       </c>
       <c r="D68">
-        <v>0.02061940786060635</v>
+        <v>0.004827807757410069</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -1326,13 +1326,13 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>0.006840417552030686</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C69">
-        <v>42.66163919159229</v>
+        <v>-0.001380598749360473</v>
       </c>
       <c r="D69">
-        <v>0.01684429396555731</v>
+        <v>-0.0009743945163193206</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -1340,13 +1340,13 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>-0.001380598749360473</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C70">
-        <v>43.38381194315062</v>
+        <v>0.005052904005053094</v>
       </c>
       <c r="D70">
-        <v>0.008729450806652392</v>
+        <v>0.003566222232413554</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -1354,13 +1354,13 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>0.005052904005053094</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C71">
-        <v>44.10598469470894</v>
+        <v>-0.005296737061895485</v>
       </c>
       <c r="D71">
-        <v>-0.003509042895159209</v>
+        <v>-0.003738313937983083</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -1368,13 +1368,13 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>-0.005296737061895485</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C72">
-        <v>44.82815744626727</v>
+        <v>-0.01062361875145168</v>
       </c>
       <c r="D72">
-        <v>-0.002962392063912042</v>
+        <v>-0.007497903253698248</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -1382,13 +1382,13 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>-0.01062361875145168</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C73">
-        <v>45.55033019782559</v>
+        <v>-0.01018422828938714</v>
       </c>
       <c r="D73">
-        <v>0.004994089601552816</v>
+        <v>-0.007187791675691227</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -1396,13 +1396,13 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>-0.01018422828938714</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C74">
-        <v>46.27250294938392</v>
+        <v>-0.001883031127960955</v>
       </c>
       <c r="D74">
-        <v>0.01633698849558127</v>
+        <v>-0.001328999614112116</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -1410,13 +1410,13 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>-0.001883031127960955</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C75">
-        <v>46.99467570094225</v>
+        <v>0.004287044499236004</v>
       </c>
       <c r="D75">
-        <v>0.01204326244553978</v>
+        <v>0.003025696389488607</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -1424,13 +1424,13 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>0.004287044499236004</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C76">
-        <v>47.71684845250057</v>
+        <v>0.01018721826840974</v>
       </c>
       <c r="D76">
-        <v>0.001183362424269949</v>
+        <v>0.007189901933407217</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -1438,13 +1438,13 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>0.01018721826840974</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C77">
-        <v>48.4390212040589</v>
+        <v>0.001746916046396763</v>
       </c>
       <c r="D77">
-        <v>0.008282472370597061</v>
+        <v>0.001232932752450867</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -1452,13 +1452,13 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>0.001746916046396763</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C78">
-        <v>49.16119395561722</v>
+        <v>0.00187998148143631</v>
       </c>
       <c r="D78">
-        <v>-0.01178743410725928</v>
+        <v>0.001326847244459672</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -1466,13 +1466,13 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>0.00187998148143631</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C79">
-        <v>49.88336670717555</v>
+        <v>-0.00888603093792284</v>
       </c>
       <c r="D79">
-        <v>-0.01183966953023331</v>
+        <v>-0.006271554151245372</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -1480,13 +1480,13 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>-0.00888603093792284</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C80">
-        <v>50.60553945873387</v>
+        <v>0.004275150386400917</v>
       </c>
       <c r="D80">
-        <v>-0.001275745662219803</v>
+        <v>0.003017301801033156</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -1494,13 +1494,13 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>0.004275150386400917</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C81">
-        <v>51.3277122102922</v>
+        <v>0.002485423323220992</v>
       </c>
       <c r="D81">
-        <v>0.00339485691827812</v>
+        <v>0.001754154027736521</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -1508,13 +1508,13 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>0.002485423323220992</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C82">
-        <v>52.04988496185052</v>
+        <v>-0.002540117446351076</v>
       </c>
       <c r="D82">
-        <v>-0.004019836259078519</v>
+        <v>-0.00179275586891415</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -1522,13 +1522,13 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>-0.002540117446351076</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C83">
-        <v>52.77205771340885</v>
+        <v>0.01965997952813403</v>
       </c>
       <c r="D83">
-        <v>-0.0008310015969793263</v>
+        <v>0.01387555671192495</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -1536,13 +1536,13 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>0.01965997952813403</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C84">
-        <v>53.49423046496717</v>
+        <v>-0.0002145462355365169</v>
       </c>
       <c r="D84">
-        <v>-0.005086518859281994</v>
+        <v>-0.0001514217476298408</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -1550,13 +1550,13 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>-0.0002145462355365169</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C85">
-        <v>54.2164032165255</v>
+        <v>-0.007781511821396414</v>
       </c>
       <c r="D85">
-        <v>-0.02004400307327354</v>
+        <v>-0.005492010224516662</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -1564,13 +1564,13 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>-0.007781511821396414</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C86">
-        <v>54.93857596808382</v>
+        <v>0.0004323973799227332</v>
       </c>
       <c r="D86">
-        <v>-0.01826399195770241</v>
+        <v>0.0003051760231296178</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -1578,13 +1578,13 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>0.0004323973799227332</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C87">
-        <v>55.66074871964215</v>
+        <v>-0.003355980307456541</v>
       </c>
       <c r="D87">
-        <v>-0.0176835349341577</v>
+        <v>-0.002368572918073442</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -1592,13 +1592,13 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>-0.003355980307456541</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C88">
-        <v>56.38292147120048</v>
+        <v>0.005892545972116636</v>
       </c>
       <c r="D88">
-        <v>-0.01246684585927653</v>
+        <v>0.004158822022002866</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -1606,13 +1606,13 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>0.005892545972116636</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C89">
-        <v>57.1050942227588</v>
+        <v>-0.0149611120898463</v>
       </c>
       <c r="D89">
-        <v>-0.005431010706288847</v>
+        <v>-0.0105592052615851</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -1620,13 +1620,13 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>-0.0149611120898463</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C90">
-        <v>57.82726697431713</v>
+        <v>-0.005678949707694336</v>
       </c>
       <c r="D90">
-        <v>-0.001378425251007414</v>
+        <v>-0.004008070741910956</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -1634,13 +1634,13 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>-0.005678949707694336</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C91">
-        <v>58.54943972587545</v>
+        <v>-0.01220725717591886</v>
       </c>
       <c r="D91">
-        <v>-0.006741867630181518</v>
+        <v>-0.008615598454674047</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -1648,13 +1648,13 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>-0.01220725717591886</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C92">
-        <v>59.27161247743378</v>
+        <v>-0.01841051479842015</v>
       </c>
       <c r="D92">
-        <v>-0.0002328223383668985</v>
+        <v>-0.0129937135395104</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -1662,13 +1662,13 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>-0.01841051479842015</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C93">
-        <v>59.9937852289921</v>
+        <v>0.0008223334883732392</v>
       </c>
       <c r="D93">
-        <v>0.001012912901429975</v>
+        <v>0.0005803838675268923</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -1676,13 +1676,13 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>0.0008223334883732392</v>
+        <v>0.5017182130584192</v>
       </c>
       <c r="C94">
-        <v>60.49550344205052</v>
+        <v>0.01312214362959629</v>
       </c>
       <c r="D94">
-        <v>0.004182594957199611</v>
+        <v>0.008668182720842974</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -1690,13 +1690,13 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>0.01312214362959629</v>
+        <v>0.5017182130584192</v>
       </c>
       <c r="C95">
-        <v>60.99722165510894</v>
+        <v>0.01870715659529321</v>
       </c>
       <c r="D95">
-        <v>0.0008259895111764515</v>
+        <v>0.01235751231907626</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -1704,13 +1704,13 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>0.01870715659529321</v>
+        <v>0.5017182130584192</v>
       </c>
       <c r="C96">
-        <v>61.49893986816735</v>
+        <v>-0.007081382488360433</v>
       </c>
       <c r="D96">
-        <v>0.007337235057331829</v>
+        <v>-0.004677796483406909</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -1718,13 +1718,13 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>-0.007081382488360433</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C97">
-        <v>62.22111261972568</v>
+        <v>-0.0163366795720421</v>
       </c>
       <c r="D97">
-        <v>0.01371198123831457</v>
+        <v>-0.01153004882645118</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -1732,13 +1732,13 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>-0.0163366795720421</v>
+        <v>0.5017182130584192</v>
       </c>
       <c r="C98">
-        <v>62.7228308327841</v>
+        <v>0.01170813234728385</v>
       </c>
       <c r="D98">
-        <v>0.01849875415130038</v>
+        <v>0.007734119772715128</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -1746,13 +1746,13 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>0.01170813234728385</v>
+        <v>0.5017182130584192</v>
       </c>
       <c r="C99">
-        <v>63.22454904584252</v>
+        <v>-0.03310008198449221</v>
       </c>
       <c r="D99">
-        <v>0.02601101550994816</v>
+        <v>-0.02186514389838974</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -1760,13 +1760,13 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>-0.03310008198449221</v>
+        <v>0.5017182130584192</v>
       </c>
       <c r="C100">
-        <v>63.72626725890093</v>
+        <v>-8.614872146228691e-05</v>
       </c>
       <c r="D100">
-        <v>0.01510406345311936</v>
+        <v>-5.69078406608695e-05</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -1774,13 +1774,13 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>-8.614872146228691e-05</v>
+        <v>0.5017182130584192</v>
       </c>
       <c r="C101">
-        <v>64.22798547195936</v>
+        <v>0.01742244023383854</v>
       </c>
       <c r="D101">
-        <v>0.01979001896602219</v>
+        <v>0.01150885858688965</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -1788,13 +1788,13 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>0.01742244023383854</v>
+        <v>0.5017182130584192</v>
       </c>
       <c r="C102">
-        <v>64.72970368501778</v>
+        <v>0.007702942138870128</v>
       </c>
       <c r="D102">
-        <v>0.02033487090219521</v>
+        <v>0.005088384324433847</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -1802,13 +1802,13 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>0.007702942138870128</v>
+        <v>0.5017182130584192</v>
       </c>
       <c r="C103">
-        <v>65.23142189807621</v>
+        <v>-0.01222860466894282</v>
       </c>
       <c r="D103">
-        <v>0.02133260773922197</v>
+        <v>-0.008077931676671564</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -1816,13 +1816,13 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>-0.01222860466894282</v>
+        <v>0.5017182130584192</v>
       </c>
       <c r="C104">
-        <v>65.73314011113463</v>
+        <v>0.005259151997889511</v>
       </c>
       <c r="D104">
-        <v>0.02024409325271045</v>
+        <v>0.003474073425897653</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -1830,13 +1830,13 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>0.005259151997889511</v>
+        <v>0.5017182130584192</v>
       </c>
       <c r="C105">
-        <v>66.23485832419306</v>
+        <v>-0.007018367047402663</v>
       </c>
       <c r="D105">
-        <v>0.01862617346298061</v>
+        <v>-0.004636169949520749</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -1844,13 +1844,13 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>-0.007018367047402663</v>
+        <v>0.5017182130584192</v>
       </c>
       <c r="C106">
-        <v>66.73657653725148</v>
+        <v>-0.02466847338382561</v>
       </c>
       <c r="D106">
-        <v>0.01218834318598555</v>
+        <v>-0.01629541946583848</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -1858,13 +1858,13 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>-0.02466847338382561</v>
+        <v>0.5017182130584192</v>
       </c>
       <c r="C107">
-        <v>67.2382947503099</v>
+        <v>0.002935664594337695</v>
       </c>
       <c r="D107">
-        <v>0.01589039953865463</v>
+        <v>0.001939231716183507</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -1872,13 +1872,13 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>0.002935664594337695</v>
+        <v>0.5017182130584192</v>
       </c>
       <c r="C108">
-        <v>67.74001296336833</v>
+        <v>0.0009573126356618999</v>
       </c>
       <c r="D108">
-        <v>0.01449996475962597</v>
+        <v>0.0006323784498268307</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -1886,13 +1886,13 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>0.0009573126356618999</v>
+        <v>0.5017182130584192</v>
       </c>
       <c r="C109">
-        <v>68.24173117642675</v>
+        <v>0.008603569541127953</v>
       </c>
       <c r="D109">
-        <v>0.01277618362963491</v>
+        <v>0.005683317828176418</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -1900,13 +1900,13 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>0.008603569541127953</v>
+        <v>0.5017182130584192</v>
       </c>
       <c r="C110">
-        <v>68.74344938948518</v>
+        <v>0.0116037770604569</v>
       </c>
       <c r="D110">
-        <v>0.0175879052400858</v>
+        <v>0.00766518509865305</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -1914,13 +1914,13 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>0.0116037770604569</v>
+        <v>0.5017182130584192</v>
       </c>
       <c r="C111">
-        <v>69.2451676025436</v>
+        <v>0.006683683900917892</v>
       </c>
       <c r="D111">
-        <v>0.002133350800894692</v>
+        <v>0.004415086051248718</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -1928,13 +1928,13 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>0.006683683900917892</v>
+        <v>0.5017182130584192</v>
       </c>
       <c r="C112">
-        <v>69.74688581560203</v>
+        <v>-0.008845600883374161</v>
       </c>
       <c r="D112">
-        <v>-0.01044867531416221</v>
+        <v>-0.005843198100636563</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -1942,13 +1942,13 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>-0.008845600883374161</v>
+        <v>0.5017182130584192</v>
       </c>
       <c r="C113">
-        <v>70.24860402866045</v>
+        <v>0.01073497442738702</v>
       </c>
       <c r="D113">
-        <v>-0.007852666994651024</v>
+        <v>0.007091274296852836</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -1956,13 +1956,13 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>0.01073497442738702</v>
+        <v>0.5017182130584192</v>
       </c>
       <c r="C114">
-        <v>70.75032224171888</v>
+        <v>0.002054515730491424</v>
       </c>
       <c r="D114">
-        <v>-0.00471769523107018</v>
+        <v>0.001357165281637276</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -1970,13 +1970,13 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>0.002054515730491424</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C115">
-        <v>71.47249499327721</v>
+        <v>0.004768191234628461</v>
       </c>
       <c r="D115">
-        <v>-0.006610519914254463</v>
+        <v>0.003365278574919765</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -1984,13 +1984,13 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>0.004768191234628461</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C116">
-        <v>72.19466774483554</v>
+        <v>-0.005049382362089183</v>
       </c>
       <c r="D116">
-        <v>-0.01716308727021932</v>
+        <v>-0.003563736738642059</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -1998,13 +1998,13 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>-0.005049382362089183</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C117">
-        <v>72.91684049639387</v>
+        <v>0.009794945800061683</v>
       </c>
       <c r="D117">
-        <v>-0.01138767853706546</v>
+        <v>0.006913045140484259</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -2012,13 +2012,13 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>0.009794945800061683</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C118">
-        <v>73.63901324795221</v>
+        <v>0.0095896081462854</v>
       </c>
       <c r="D118">
-        <v>-0.005847295582651973</v>
+        <v>0.006768122595880935</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -2026,13 +2026,13 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>0.0095896081462854</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C119">
-        <v>74.36118599951054</v>
+        <v>0.007200800662107376</v>
       </c>
       <c r="D119">
-        <v>0.005629730393902966</v>
+        <v>0.005082157782278259</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -2040,13 +2040,13 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>0.007200800662107376</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C120">
-        <v>75.08335875106887</v>
+        <v>0.01130078605118801</v>
       </c>
       <c r="D120">
-        <v>0.001092147997364116</v>
+        <v>0.00797583219851258</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -2054,13 +2054,13 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>0.01130078605118801</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C121">
-        <v>75.8055315026272</v>
+        <v>-0.01640746052091213</v>
       </c>
       <c r="D121">
-        <v>0.00517412104226703</v>
+        <v>-0.01158000437542642</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -2068,13 +2068,13 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>-0.01640746052091213</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C122">
-        <v>76.52770425418554</v>
+        <v>0.007049139822024486</v>
       </c>
       <c r="D122">
-        <v>0.007011337873491799</v>
+        <v>0.004975119085491374</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -2082,13 +2082,13 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>0.007049139822024486</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C123">
-        <v>77.24987700574387</v>
+        <v>0.0008196273886529326</v>
       </c>
       <c r="D123">
-        <v>0.008171475926382708</v>
+        <v>0.0005784739652259512</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -2096,13 +2096,13 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>0.0008196273886529326</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C124">
-        <v>77.9720497573022</v>
+        <v>0.001500907648487093</v>
       </c>
       <c r="D124">
-        <v>0.007549648936355089</v>
+        <v>0.001059305741704463</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -2110,13 +2110,13 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>0.001500907648487093</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C125">
-        <v>78.69422250886053</v>
+        <v>-0.001637465569741536</v>
       </c>
       <c r="D125">
-        <v>0.005427279612854488</v>
+        <v>-0.001155685149328823</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -2124,13 +2124,13 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>-0.001637465569741536</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C126">
-        <v>79.41639526041887</v>
+        <v>-0.002433856400732459</v>
       </c>
       <c r="D126">
-        <v>0.002958698857020284</v>
+        <v>-0.001717759292104922</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -2138,13 +2138,13 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>-0.002433856400732459</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C127">
-        <v>80.1385680119772</v>
+        <v>-0.009684506318517805</v>
       </c>
       <c r="D127">
-        <v>0.006944015374826336</v>
+        <v>-0.006835099520693316</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -2152,13 +2152,13 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>-0.009684506318517805</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C128">
-        <v>80.86074076353553</v>
+        <v>0.005569048358893269</v>
       </c>
       <c r="D128">
-        <v>0.009161720563535191</v>
+        <v>0.003930504923705296</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -2166,13 +2166,13 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>0.005569048358893269</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C129">
-        <v>81.58291351509386</v>
+        <v>-0.002091647934725493</v>
       </c>
       <c r="D129">
-        <v>0.01605726532549911</v>
+        <v>-0.001476236508696858</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -2180,13 +2180,13 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>-0.002091647934725493</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C130">
-        <v>82.3050862666522</v>
+        <v>-0.002593104901319698</v>
       </c>
       <c r="D130">
-        <v>0.01768444725958927</v>
+        <v>-0.001830153183361276</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -2194,13 +2194,13 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>-0.002593104901319698</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C131">
-        <v>83.02725901821053</v>
+        <v>0.007238331290881916</v>
       </c>
       <c r="D131">
-        <v>0.02146314186422506</v>
+        <v>0.005108646027967941</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -2208,13 +2208,13 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>0.007238331290881916</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C132">
-        <v>83.74943176976886</v>
+        <v>-0.02324847404739039</v>
       </c>
       <c r="D132">
-        <v>0.02137301894704711</v>
+        <v>-0.01640823275775292</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -2222,13 +2222,13 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>-0.02324847404739039</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C133">
-        <v>84.47160452132719</v>
+        <v>-0.01892729478228805</v>
       </c>
       <c r="D133">
-        <v>0.01403218450708435</v>
+        <v>-0.01335844484370557</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -2236,13 +2236,13 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>-0.01892729478228805</v>
+        <v>0.5017182130584192</v>
       </c>
       <c r="C134">
-        <v>84.97332273438562</v>
+        <v>0.004281439393006181</v>
       </c>
       <c r="D134">
-        <v>0.02362243450274041</v>
+        <v>0.002828219231123778</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -2250,13 +2250,13 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>0.004281439393006181</v>
+        <v>0.5017182130584192</v>
       </c>
       <c r="C135">
-        <v>85.47504094744404</v>
+        <v>0.005170319179518046</v>
       </c>
       <c r="D135">
-        <v>0.02804852488414673</v>
+        <v>0.003415392533279272</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -2264,13 +2264,13 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>0.005170319179518046</v>
+        <v>0.5017182130584192</v>
       </c>
       <c r="C136">
-        <v>85.97675916050247</v>
+        <v>-0.003121721183145354</v>
       </c>
       <c r="D136">
-        <v>0.02972198669313893</v>
+        <v>-0.002062136369091285</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -2278,13 +2278,13 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>-0.003121721183145354</v>
+        <v>0.5017182130584192</v>
       </c>
       <c r="C137">
-        <v>86.47847737356089</v>
+        <v>-0.0174037106258913</v>
       </c>
       <c r="D137">
-        <v>0.02911717819423694</v>
+        <v>-0.01149648624372994</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -2292,13 +2292,13 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>-0.0174037106258913</v>
+        <v>0.2746478873239437</v>
       </c>
       <c r="C138">
-        <v>86.75312526088483</v>
+        <v>0.01018655217216669</v>
       </c>
       <c r="D138">
-        <v>0.0333923770266434</v>
+        <v>0.006228162278654785</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -2306,13 +2306,13 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>0.01018655217216669</v>
+        <v>0.2746478873239437</v>
       </c>
       <c r="C139">
-        <v>87.02777314820877</v>
+        <v>0.00977201833264818</v>
       </c>
       <c r="D139">
-        <v>0.0360042481779514</v>
+        <v>0.005974712045555361</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -2320,13 +2320,13 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>0.00977201833264818</v>
+        <v>0.5017182130584192</v>
       </c>
       <c r="C140">
-        <v>87.52949136126719</v>
+        <v>0.01892836427420619</v>
       </c>
       <c r="D140">
-        <v>0.03524645080050965</v>
+        <v>0.01250363696411875</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -2334,13 +2334,13 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>0.01892836427420619</v>
+        <v>0.5017182130584192</v>
       </c>
       <c r="C141">
-        <v>88.03120957432562</v>
+        <v>-0.00748356000076722</v>
       </c>
       <c r="D141">
-        <v>0.03800912135866902</v>
+        <v>-0.004943465589168966</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -2348,13 +2348,13 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>-0.00748356000076722</v>
+        <v>0.5017182130584192</v>
       </c>
       <c r="C142">
-        <v>88.53292778738404</v>
+        <v>0.006732151073740589</v>
       </c>
       <c r="D142">
-        <v>0.03482311818978782</v>
+        <v>0.004447102337752568</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -2362,13 +2362,13 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>0.006732151073740589</v>
+        <v>0.5017182130584192</v>
       </c>
       <c r="C143">
-        <v>89.03464600044246</v>
+        <v>0.003030010518680015</v>
       </c>
       <c r="D143">
-        <v>0.03807935810112714</v>
+        <v>0.002001554438312653</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -2376,13 +2376,13 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>0.003030010518680015</v>
+        <v>0.5017182130584192</v>
       </c>
       <c r="C144">
-        <v>89.53636421350089</v>
+        <v>0.001913345471060701</v>
       </c>
       <c r="D144">
-        <v>0.03758754499000282</v>
+        <v>0.001263911493381648</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -2390,13 +2390,13 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>0.001913345471060701</v>
+        <v>0.5017182130584192</v>
       </c>
       <c r="C145">
-        <v>90.03808242655931</v>
+        <v>-0.001025541617385883</v>
       </c>
       <c r="D145">
-        <v>0.03609230811375016</v>
+        <v>-0.0006774489274206458</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -2404,13 +2404,13 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>-0.001025541617385883</v>
+        <v>0.5017182130584192</v>
       </c>
       <c r="C146">
-        <v>90.53980063961774</v>
+        <v>-0.00350029526479112</v>
       </c>
       <c r="D146">
-        <v>0.03395797612346408</v>
+        <v>-0.00231221359775989</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -2418,13 +2418,13 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>-0.00350029526479112</v>
+        <v>0.5017182130584192</v>
       </c>
       <c r="C147">
-        <v>91.04151885267616</v>
+        <v>-0.004071280825030499</v>
       </c>
       <c r="D147">
-        <v>0.0260490971980477</v>
+        <v>-0.002689393371646429</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -2432,13 +2432,13 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>-0.004071280825030499</v>
+        <v>0.5017182130584192</v>
       </c>
       <c r="C148">
-        <v>91.54323706573459</v>
+        <v>0.006572741313920716</v>
       </c>
       <c r="D148">
-        <v>0.02524405910896961</v>
+        <v>0.004341799959984976</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -2446,13 +2446,13 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>0.006572741313920716</v>
+        <v>0.5017182130584192</v>
       </c>
       <c r="C149">
-        <v>92.04495527879301</v>
+        <v>0.003657526936893696</v>
       </c>
       <c r="D149">
-        <v>0.02626360946980291</v>
+        <v>0.002416077181466962</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -2460,13 +2460,13 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>0.003657526936893696</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C150">
-        <v>92.76712803035134</v>
+        <v>0.01037305178042569</v>
       </c>
       <c r="D150">
-        <v>0.030379536010632</v>
+        <v>0.00732105890797393</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -2474,13 +2474,13 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>0.01037305178042569</v>
+        <v>0.2746478873239437</v>
       </c>
       <c r="C151">
-        <v>93.04177591767528</v>
+        <v>0.002869991446677211</v>
       </c>
       <c r="D151">
-        <v>0.03385196294273041</v>
+        <v>0.001754742150842478</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -2488,13 +2488,13 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>0.002869991446677211</v>
+        <v>0.2746478873239437</v>
       </c>
       <c r="C152">
-        <v>93.31642380499922</v>
+        <v>0.006664787119194493</v>
       </c>
       <c r="D152">
-        <v>0.035193548964945</v>
+        <v>0.004074919072662282</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -2502,13 +2502,13 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>0.006664787119194493</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C153">
-        <v>94.03859655655755</v>
+        <v>-0.0001355729994889643</v>
       </c>
       <c r="D153">
-        <v>0.03215344870438053</v>
+        <v>-9.568427272891672e-05</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -2516,13 +2516,13 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>-0.0001355729994889643</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C154">
-        <v>94.76076930811588</v>
+        <v>-0.01104290645422168</v>
       </c>
       <c r="D154">
-        <v>0.02585240012106094</v>
+        <v>-0.007793826771323093</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -2530,13 +2530,13 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>-0.01104290645422168</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C155">
-        <v>95.48294205967422</v>
+        <v>0.01442672960966096</v>
       </c>
       <c r="D155">
-        <v>0.02140225661084549</v>
+        <v>0.01018205052451837</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -2544,13 +2544,13 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>0.01442672960966096</v>
+        <v>0.2746478873239437</v>
       </c>
       <c r="C156">
-        <v>95.75758994699815</v>
+        <v>0.007806651039276247</v>
       </c>
       <c r="D156">
-        <v>0.02113213687841235</v>
+        <v>0.004773066362757337</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -2558,13 +2558,13 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>0.007806651039276247</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C157">
-        <v>96.47976269855648</v>
+        <v>0.002517408935258203</v>
       </c>
       <c r="D157">
-        <v>0.02549461989262948</v>
+        <v>0.001776728729462574</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -2572,13 +2572,13 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>0.002517408935258203</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C158">
-        <v>97.20193545011482</v>
+        <v>-0.0009098207745612541</v>
       </c>
       <c r="D158">
-        <v>0.03224202020043807</v>
+        <v>-0.0006421303611759335</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -2586,13 +2586,13 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>-0.0009098207745612541</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C159">
-        <v>97.92410820167315</v>
+        <v>0.006431233556018157</v>
       </c>
       <c r="D159">
-        <v>0.0314089818577284</v>
+        <v>0.004539015201234767</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -2600,13 +2600,13 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>0.006431233556018157</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C160">
-        <v>98.64628095323148</v>
+        <v>0.003929069512500938</v>
       </c>
       <c r="D160">
-        <v>0.02749571350228477</v>
+        <v>0.002773045962117362</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -2614,13 +2614,13 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>0.003929069512500938</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C161">
-        <v>99.36845370478981</v>
+        <v>-0.001139963803677091</v>
       </c>
       <c r="D161">
-        <v>0.03220659301814556</v>
+        <v>-0.0008045599632912964</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -2628,13 +2628,13 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>-0.001139963803677091</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C162">
-        <v>100.0906264563481</v>
+        <v>0.004155918892749355</v>
       </c>
       <c r="D162">
-        <v>0.04168655457096986</v>
+        <v>0.002933150983396633</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -2642,13 +2642,13 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>0.004155918892749355</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C163">
-        <v>100.8127992079065</v>
+        <v>-0.004792743283417167</v>
       </c>
       <c r="D163">
-        <v>0.0362507866076839</v>
+        <v>-0.003382606840438767</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -2656,13 +2656,13 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>-0.004792743283417167</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C164">
-        <v>101.5349719594648</v>
+        <v>0.004898401268617292</v>
       </c>
       <c r="D164">
-        <v>0.03935987681227942</v>
+        <v>0.003457177791217941</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -2670,13 +2670,13 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>0.004898401268617292</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C165">
-        <v>102.2571447110231</v>
+        <v>-0.0007398404396017355</v>
       </c>
       <c r="D165">
-        <v>0.04056796668815624</v>
+        <v>-0.0005221621905953075</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -2684,13 +2684,13 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>-0.0007398404396017355</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C166">
-        <v>102.9793174625815</v>
+        <v>-0.002249303003139858</v>
       </c>
       <c r="D166">
-        <v>0.03897422667055456</v>
+        <v>-0.001587505792552187</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -2698,13 +2698,13 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>-0.002249303003139858</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C167">
-        <v>103.7014902141398</v>
+        <v>-0.003210701549495987</v>
       </c>
       <c r="D167">
-        <v>0.04116245085531508</v>
+        <v>-0.002266038546548031</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -2712,13 +2712,13 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>-0.003210701549495987</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C168">
-        <v>104.4236629656981</v>
+        <v>-0.01189742267659444</v>
       </c>
       <c r="D168">
-        <v>0.0441443221477903</v>
+        <v>-0.008396924464676513</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -2726,13 +2726,13 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>-0.01189742267659444</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C169">
-        <v>105.1458357172565</v>
+        <v>-0.001211028580263118</v>
       </c>
       <c r="D169">
-        <v>0.04688766283388941</v>
+        <v>-0.0008547158312731837</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -2740,13 +2740,13 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>-0.001211028580263118</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C170">
-        <v>105.8680084688148</v>
+        <v>0.001533721997428295</v>
       </c>
       <c r="D170">
-        <v>0.04733801583610191</v>
+        <v>0.00108246534667999</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -2754,13 +2754,13 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>0.001533721997428295</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C171">
-        <v>106.5901812203731</v>
+        <v>0.006191638312313508</v>
       </c>
       <c r="D171">
-        <v>0.05005099057336719</v>
+        <v>0.004369914445703773</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -2768,13 +2768,13 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>0.006191638312313508</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C172">
-        <v>107.3123539719315</v>
+        <v>0.005223614031060642</v>
       </c>
       <c r="D172">
-        <v>0.04835884042094076</v>
+        <v>0.003686705401980045</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -2782,13 +2782,13 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>0.005223614031060642</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C173">
-        <v>108.0345267234898</v>
+        <v>0.002018164156237567</v>
       </c>
       <c r="D173">
-        <v>0.04570837202632052</v>
+        <v>0.001424373365382968</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -2796,13 +2796,13 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>0.002018164156237567</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C174">
-        <v>108.7566994750481</v>
+        <v>-0.004573259765416893</v>
       </c>
       <c r="D174">
-        <v>0.05068874512398894</v>
+        <v>-0.003227700473573661</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -2810,13 +2810,13 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>-0.004573259765416893</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C175">
-        <v>109.4788722266065</v>
+        <v>-0.009478743954543845</v>
       </c>
       <c r="D175">
-        <v>0.04240216204909393</v>
+        <v>-0.006689877225501464</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -2824,13 +2824,13 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>-0.009478743954543845</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C176">
-        <v>110.2010449781648</v>
+        <v>-0.006694404960782663</v>
       </c>
       <c r="D176">
-        <v>0.03151538532308269</v>
+        <v>-0.004724755463402448</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -2838,13 +2838,13 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>-0.006694404960782663</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C177">
-        <v>110.9232177297231</v>
+        <v>-0.0004063443960076185</v>
       </c>
       <c r="D177">
-        <v>0.02851181892685958</v>
+        <v>-0.0002867884324756333</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -2852,13 +2852,13 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>-0.0004063443960076185</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C178">
-        <v>111.6453904812815</v>
+        <v>0.006562536211397685</v>
       </c>
       <c r="D178">
-        <v>0.02712096700924022</v>
+        <v>0.004631685564321249</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -2866,13 +2866,13 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>0.006562536211397685</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C179">
-        <v>112.3675632328398</v>
+        <v>0.01015019627778102</v>
       </c>
       <c r="D179">
-        <v>0.03039729858991626</v>
+        <v>0.007163772672701631</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -2880,13 +2880,13 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>0.01015019627778102</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C180">
-        <v>113.0897359843981</v>
+        <v>-0.001253149702061584</v>
       </c>
       <c r="D180">
-        <v>0.03257848429966525</v>
+        <v>-0.000884443940269846</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -2894,13 +2894,13 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>-0.001253149702061584</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C181">
-        <v>113.8119087359565</v>
+        <v>-0.005886777141325794</v>
       </c>
       <c r="D181">
-        <v>0.0297575465331166</v>
+        <v>-0.004154750515281036</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -2908,13 +2908,13 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>-0.005886777141325794</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C182">
-        <v>114.5340814875148</v>
+        <v>0.007086633302551881</v>
       </c>
       <c r="D182">
-        <v>0.03872869640506485</v>
+        <v>0.005001581112811434</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -2922,13 +2922,13 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>0.007086633302551881</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C183">
-        <v>115.2562542390731</v>
+        <v>0.0142608213648785</v>
       </c>
       <c r="D183">
-        <v>0.03616274766436071</v>
+        <v>0.01006495634056153</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -2936,13 +2936,13 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>0.0142608213648785</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C184">
-        <v>115.9784269906315</v>
+        <v>-0.008177091802894054</v>
       </c>
       <c r="D184">
-        <v>0.04041051420145658</v>
+        <v>-0.0057712013833639</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -2950,13 +2950,13 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>-0.008177091802894054</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C185">
-        <v>116.7005997421898</v>
+        <v>0.004677042176592039</v>
       </c>
       <c r="D185">
-        <v>0.04423131041632677</v>
+        <v>0.003300947687788727</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -2964,13 +2964,13 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>0.004677042176592039</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C186">
-        <v>117.4227724937481</v>
+        <v>0.001817344281049849</v>
       </c>
       <c r="D186">
-        <v>0.04745921261041908</v>
+        <v>0.001282639363927812</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -2978,13 +2978,13 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>0.001817344281049849</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C187">
-        <v>118.1449452453065</v>
+        <v>-0.002397482475686274</v>
       </c>
       <c r="D187">
-        <v>0.04034052334583335</v>
+        <v>-0.001692087421028383</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -2992,13 +2992,13 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>-0.002397482475686274</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C188">
-        <v>118.8671179968648</v>
+        <v>0.00329177223254451</v>
       </c>
       <c r="D188">
-        <v>0.03772810015457703</v>
+        <v>0.002323256350803854</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -3006,13 +3006,13 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>0.00329177223254451</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C189">
-        <v>119.5892907484231</v>
+        <v>0.004485665221118929</v>
       </c>
       <c r="D189">
-        <v>0.03681395991120005</v>
+        <v>0.003165878279642974</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -3020,13 +3020,13 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>0.004485665221118929</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C190">
-        <v>120.3114634999815</v>
+        <v>0.004126840731311532</v>
       </c>
       <c r="D190">
-        <v>0.03222430684529689</v>
+        <v>0.002912628292743185</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -3034,13 +3034,13 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>0.004126840731311532</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C191">
-        <v>121.0336362515398</v>
+        <v>0.0006774714939403736</v>
       </c>
       <c r="D191">
-        <v>0.01811736686594462</v>
+        <v>0.000478143638014987</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -3048,13 +3048,13 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>0.0006774714939403736</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C192">
-        <v>121.7558090030981</v>
+        <v>0.004081160865472278</v>
       </c>
       <c r="D192">
-        <v>0.0245993259547698</v>
+        <v>0.002880388504897086</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -3062,13 +3062,13 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>0.004081160865472278</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C193">
-        <v>122.4779817546565</v>
+        <v>-0.002545522037388004</v>
       </c>
       <c r="D193">
-        <v>0.02665865814064173</v>
+        <v>-0.001796570303681508</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -3076,13 +3076,13 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>-0.002545522037388004</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C194">
-        <v>123.2001545062148</v>
+        <v>-0.003987131814651157</v>
       </c>
       <c r="D194">
-        <v>0.02273731272714375</v>
+        <v>-0.002814024985781012</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -3090,13 +3090,13 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>-0.003987131814651157</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C195">
-        <v>123.9223272577731</v>
+        <v>0.00749203577256452</v>
       </c>
       <c r="D195">
-        <v>0.007900792638203468</v>
+        <v>0.00528770475580735</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -3104,13 +3104,13 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>0.00749203577256452</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C196">
-        <v>124.6445000093315</v>
+        <v>-0.01246560761853477</v>
       </c>
       <c r="D196">
-        <v>0.02194666419017147</v>
+        <v>-0.008797936193781965</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -3118,13 +3118,13 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>-0.01246560761853477</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C197">
-        <v>125.3666727608898</v>
+        <v>-0.01637711052559165</v>
       </c>
       <c r="D197">
-        <v>0.03344375038362696</v>
+        <v>-0.01155858405397221</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -3132,13 +3132,13 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>-0.01637711052559165</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C198">
-        <v>126.0888455124481</v>
+        <v>-0.004518301429326854</v>
       </c>
       <c r="D198">
-        <v>0.04571758847775625</v>
+        <v>-0.003188912157028412</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -3146,13 +3146,13 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>-0.004518301429326854</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C199">
-        <v>126.8110182640064</v>
+        <v>-0.002092275441376579</v>
       </c>
       <c r="D199">
-        <v>0.04517957069237301</v>
+        <v>-0.001476679388309819</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -3160,13 +3160,13 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>-0.002092275441376579</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C200">
-        <v>127.5331910155648</v>
+        <v>0.004928625410955512</v>
       </c>
       <c r="D200">
-        <v>0.03538479872924295</v>
+        <v>0.003478509288561726</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -3174,13 +3174,13 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>0.004928625410955512</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C201">
-        <v>128.2553637671231</v>
+        <v>0.003281184169052764</v>
       </c>
       <c r="D201">
-        <v>0.03549051126300061</v>
+        <v>0.002315783541626259</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -3188,13 +3188,13 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>0.003281184169052764</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C202">
-        <v>128.9775365186814</v>
+        <v>-0.00424357096239536</v>
       </c>
       <c r="D202">
-        <v>0.03889952205901876</v>
+        <v>-0.00299501377738125</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -3202,13 +3202,13 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>-0.00424357096239536</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C203">
-        <v>129.6997092702398</v>
+        <v>0.01349540977023178</v>
       </c>
       <c r="D203">
-        <v>0.04237832436613463</v>
+        <v>0.009524746622932522</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -3216,13 +3216,13 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>0.01349540977023178</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C204">
-        <v>130.4218820217981</v>
+        <v>-0.003859987872178117</v>
       </c>
       <c r="D204">
-        <v>0.03984531989502872</v>
+        <v>-0.002724289745627899</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -3230,13 +3230,13 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>-0.003859987872178117</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C205">
-        <v>131.1440547733564</v>
+        <v>0.006389966820823823</v>
       </c>
       <c r="D205">
-        <v>0.04023025947896717</v>
+        <v>0.004509890098449916</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -3244,13 +3244,13 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>0.006389966820823823</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C206">
-        <v>131.8662275249148</v>
+        <v>0.005747670176535102</v>
       </c>
       <c r="D206">
-        <v>0.03872422654395362</v>
+        <v>0.004056572051960927</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -3258,13 +3258,13 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>0.005747670176535102</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C207">
-        <v>132.5884002764731</v>
+        <v>0.004855772496201283</v>
       </c>
       <c r="D207">
-        <v>0.04003781755033451</v>
+        <v>0.003427091394211697</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -3272,13 +3272,13 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>0.004855772496201283</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C208">
-        <v>133.3105730280314</v>
+        <v>-0.01070873076738277</v>
       </c>
       <c r="D208">
-        <v>0.04092957905889074</v>
+        <v>-0.007557973336794116</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -3286,13 +3286,13 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>-0.01070873076738277</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C209">
-        <v>134.0327457795898</v>
+        <v>-0.003929899952903604</v>
       </c>
       <c r="D209">
-        <v>0.03826824175249245</v>
+        <v>-0.002773632067656616</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -3300,13 +3300,13 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>-0.003929899952903604</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C210">
-        <v>134.7549185311481</v>
+        <v>-0.001375152276789748</v>
       </c>
       <c r="D210">
-        <v>0.01899138888822961</v>
+        <v>-0.0009705505225386105</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -3314,13 +3314,13 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>-0.001375152276789748</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C211">
-        <v>135.4770912827064</v>
+        <v>-0.006904270880730756</v>
       </c>
       <c r="D211">
-        <v>-0.01023070774146494</v>
+        <v>-0.004872873953046494</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -3328,13 +3328,13 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>-0.006904270880730756</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C212">
-        <v>136.1992640342648</v>
+        <v>-0.02122124123917679</v>
       </c>
       <c r="D212">
-        <v>-0.01249917795948584</v>
+        <v>-0.01497745894853358</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -3342,13 +3342,13 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>-0.02122124123917679</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C213">
-        <v>136.9214367858231</v>
+        <v>0.00975088982640937</v>
       </c>
       <c r="D213">
-        <v>-0.04420407057834073</v>
+        <v>0.006881951458009313</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -3356,13 +3356,13 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>0.00975088982640937</v>
+        <v>0.2746478873239437</v>
       </c>
       <c r="C214">
-        <v>137.196084673147</v>
+        <v>0.00363220954921939</v>
       </c>
       <c r="D214">
-        <v>-0.05225672706300637</v>
+        <v>0.002220770101627643</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -3370,13 +3370,13 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>0.00363220954921939</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C215">
-        <v>137.9182574247054</v>
+        <v>-0.005898927557909772</v>
       </c>
       <c r="D215">
-        <v>-0.02525116203345585</v>
+        <v>-0.004163325996966723</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -3384,13 +3384,13 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>-0.005898927557909772</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C216">
-        <v>138.6404301762637</v>
+        <v>-0.02231875746392387</v>
       </c>
       <c r="D216">
-        <v>-0.03020329560778106</v>
+        <v>-0.01575206039697065</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -3398,13 +3398,13 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>-0.02231875746392387</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C217">
-        <v>139.362602927822</v>
+        <v>0.02112937526175607</v>
       </c>
       <c r="D217">
-        <v>-0.006356022440104758</v>
+        <v>0.01491262207636016</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -3412,13 +3412,13 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>0.02112937526175607</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C218">
-        <v>140.0847756793804</v>
+        <v>0.01729520647397909</v>
       </c>
       <c r="D218">
-        <v>-0.02773045101939147</v>
+        <v>0.0122065548405444</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -3426,13 +3426,13 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>0.01729520647397909</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C219">
-        <v>140.8069484309387</v>
+        <v>0.01846368379729046</v>
       </c>
       <c r="D219">
-        <v>-0.04385713519529635</v>
+        <v>0.0130312389834248</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -3440,13 +3440,13 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>0.01846368379729046</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C220">
-        <v>141.529121182497</v>
+        <v>-0.0008093466925709336</v>
       </c>
       <c r="D220">
-        <v>-0.09896344587155895</v>
+        <v>-0.0005712180888238571</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -3454,13 +3454,13 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>-0.0008093466925709336</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C221">
-        <v>142.2512939340554</v>
+        <v>-0.01473439449069325</v>
       </c>
       <c r="D221">
-        <v>-0.07708477594905191</v>
+        <v>-0.01039919324834074</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -3468,13 +3468,13 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>-0.01473439449069325</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C222">
-        <v>142.9734666856137</v>
+        <v>0.0001590246491556258</v>
       </c>
       <c r="D222">
-        <v>-0.1089770471261853</v>
+        <v>0.0001122359021175584</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -3482,13 +3482,13 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>0.0001590246491556258</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C223">
-        <v>143.695639437172</v>
+        <v>0.005128216366919069</v>
       </c>
       <c r="D223">
-        <v>-0.1750318303523058</v>
+        <v>0.003619375947384871</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -3496,13 +3496,13 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>0.005128216366919069</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C224">
-        <v>144.4178121887304</v>
+        <v>0.00523320458517329</v>
       </c>
       <c r="D224">
-        <v>-0.1313322337141781</v>
+        <v>0.003693474192217004</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -3510,13 +3510,13 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>0.00523320458517329</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C225">
-        <v>145.1399849402887</v>
+        <v>-0.003810429407081095</v>
       </c>
       <c r="D225">
-        <v>-0.2107065243401174</v>
+        <v>-0.002689312532552696</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -3524,13 +3524,13 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>-0.003810429407081095</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C226">
-        <v>145.862157691847</v>
+        <v>0.0005790692939235953</v>
       </c>
       <c r="D226">
-        <v>-0.168600443345369</v>
+        <v>0.0004086936518155059</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -3538,13 +3538,13 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>0.0005790692939235953</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C227">
-        <v>146.5843304434053</v>
+        <v>-0.002265543645528112</v>
       </c>
       <c r="D227">
-        <v>-0.2101485186866908</v>
+        <v>-0.001598968060565938</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -3552,13 +3552,13 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>-0.002265543645528112</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C228">
-        <v>147.3065031949637</v>
+        <v>0.001976050913722105</v>
       </c>
       <c r="D228">
-        <v>-0.195829945901691</v>
+        <v>0.001394650817401159</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -3566,13 +3566,13 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>0.001976050913722105</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C229">
-        <v>148.028675946522</v>
+        <v>0.0013414876740514</v>
       </c>
       <c r="D229">
-        <v>-0.2192885418980001</v>
+        <v>0.0009467908281904085</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -3580,13 +3580,13 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>0.0013414876740514</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C230">
-        <v>148.7508486980803</v>
+        <v>-0.004003482050718432</v>
       </c>
       <c r="D230">
-        <v>-0.2522164274579033</v>
+        <v>-0.002825564602466787</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -3594,13 +3594,13 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>-0.004003482050718432</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C231">
-        <v>149.4730214496387</v>
+        <v>-0.02899840401698661</v>
       </c>
       <c r="D231">
-        <v>-0.180314943128926</v>
+        <v>-0.02046639971914557</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -3608,13 +3608,13 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>-0.02899840401698661</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C232">
-        <v>150.195194201197</v>
+        <v>-0.04395915506842307</v>
       </c>
       <c r="D232">
-        <v>-0.1661071269436756</v>
+        <v>-0.03102535016821046</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -3622,13 +3622,13 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>-0.04395915506842307</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C233">
-        <v>150.9173669527553</v>
+        <v>-0.003412487315531898</v>
       </c>
       <c r="D233">
-        <v>-0.1346214560315248</v>
+        <v>-0.002408454251319431</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -3636,13 +3636,13 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>-0.003412487315531898</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C234">
-        <v>151.6395397043137</v>
+        <v>-0.04769405524597747</v>
       </c>
       <c r="D234">
-        <v>-0.1599973177857311</v>
+        <v>-0.03366135592563626</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -3650,13 +3650,13 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>-0.04769405524597747</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C235">
-        <v>152.361712455872</v>
+        <v>-0.01211370900616515</v>
       </c>
       <c r="D235">
-        <v>-0.1390860593507942</v>
+        <v>-0.008549574330241116</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -3664,13 +3664,13 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>-0.01211370900616515</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C236">
-        <v>153.0838852074303</v>
+        <v>0.040624799646924</v>
       </c>
       <c r="D236">
-        <v>-0.1485229851519331</v>
+        <v>0.02867203959214823</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -3678,13 +3678,13 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>0.040624799646924</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="C237">
-        <v>153.7680957337461</v>
+        <v>-0.007578443639276955</v>
       </c>
       <c r="D237">
-        <v>-0.1792500615024709</v>
+        <v>-0.005291345246939035</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -3692,13 +3692,13 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>-0.007578443639276955</v>
+        <v>0.5017182130584192</v>
       </c>
       <c r="C238">
-        <v>154.2698139468045</v>
+        <v>0.03932986423367613</v>
       </c>
       <c r="D238">
-        <v>-0.1695289607198069</v>
+        <v>0.02598039308109142</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -3706,13 +3706,13 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>0.03932986423367613</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="C239">
-        <v>154.9540244731203</v>
+        <v>-0.03271012380395</v>
       </c>
       <c r="D239">
-        <v>-0.1849821153135821</v>
+        <v>-0.02283853603130201</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -3720,13 +3720,13 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>-0.03271012380395</v>
+        <v>0.5017182130584192</v>
       </c>
       <c r="C240">
-        <v>155.4557426861787</v>
+        <v>-0.02659676411294765</v>
       </c>
       <c r="D240">
-        <v>-0.1370879482313061</v>
+        <v>-0.01756920344890952</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -3734,13 +3734,13 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>-0.02659676411294765</v>
+        <v>0.2746478873239437</v>
       </c>
       <c r="C241">
-        <v>155.7303905735027</v>
+        <v>-0.09719542540720472</v>
       </c>
       <c r="D241">
-        <v>-0.1214742060267663</v>
+        <v>-0.05942627809171661</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -3748,13 +3748,13 @@
         <v>240</v>
       </c>
       <c r="B242">
-        <v>-0.09719542540720472</v>
+        <v>0.2746478873239437</v>
       </c>
       <c r="C242">
-        <v>156.0050384608266</v>
+        <v>0.03858916709112759</v>
       </c>
       <c r="D242">
-        <v>-0.08961335805631981</v>
+        <v>0.02359381180006729</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -3762,13 +3762,13 @@
         <v>241</v>
       </c>
       <c r="B243">
-        <v>0.03858916709112759</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="C243">
-        <v>156.6892489871424</v>
+        <v>-0.04880598958346472</v>
       </c>
       <c r="D243">
-        <v>-0.06227994455673122</v>
+        <v>-0.03407683071840608</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -3776,13 +3776,13 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>-0.04880598958346472</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="C244">
-        <v>157.3734595134582</v>
+        <v>-0.1010862175404919</v>
       </c>
       <c r="D244">
-        <v>-0.07634064535281908</v>
+        <v>-0.07057940946367704</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -3790,13 +3790,13 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>-0.1010862175404919</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="C245">
-        <v>158.0576700397739</v>
+        <v>0.06687520140777181</v>
       </c>
       <c r="D245">
-        <v>-0.06886387878803797</v>
+        <v>0.04669293537701432</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -3804,13 +3804,13 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>0.06687520140777181</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="C246">
-        <v>158.7418805660897</v>
+        <v>-0.1214695805127262</v>
       </c>
       <c r="D246">
-        <v>-0.09899887312351706</v>
+        <v>-0.08481127762995602</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -3818,13 +3818,13 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>-0.1214695805127262</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="C247">
-        <v>159.4260910924055</v>
+        <v>0.06443658211158265</v>
       </c>
       <c r="D247">
-        <v>-0.1024943556207235</v>
+        <v>0.04499026696168051</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -3832,13 +3832,13 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>0.06443658211158265</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="C248">
-        <v>160.1103016187213</v>
+        <v>-0.06358264424189031</v>
       </c>
       <c r="D248">
-        <v>-0.07634064535281908</v>
+        <v>-0.04439403898888675</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -3846,13 +3846,13 @@
         <v>247</v>
       </c>
       <c r="B249">
-        <v>-0.06358264424189031</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="C249">
-        <v>160.7945121450371</v>
+        <v>0.02191227179504995</v>
       </c>
       <c r="D249">
-        <v>-0.09314364310011489</v>
+        <v>0.01529936761836709</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -3860,13 +3860,13 @@
         <v>248</v>
       </c>
       <c r="B250">
-        <v>0.02191227179504995</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="C250">
-        <v>161.4787226713528</v>
+        <v>-0.03589960669403425</v>
       </c>
       <c r="D250">
-        <v>-0.1095419206046241</v>
+        <v>-0.02506546492778065</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -3874,13 +3874,13 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>-0.03589960669403425</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="C251">
-        <v>162.1629331976686</v>
+        <v>-0.05039083076637141</v>
       </c>
       <c r="D251">
-        <v>-0.09579860906553828</v>
+        <v>-0.03518338270447147</v>
       </c>
     </row>
     <row r="252" spans="1:4">
@@ -3888,13 +3888,13 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>-0.05039083076637141</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="C252">
-        <v>162.8471437239844</v>
+        <v>0.1100336528466439</v>
       </c>
       <c r="D252">
-        <v>-0.09227515835492309</v>
+        <v>0.07682659840285863</v>
       </c>
     </row>
     <row r="253" spans="1:4">
@@ -3902,13 +3902,13 @@
         <v>251</v>
       </c>
       <c r="B253">
-        <v>0.1100336528466439</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="C253">
-        <v>163.5313542503002</v>
+        <v>0.02174277663982416</v>
       </c>
       <c r="D253">
-        <v>-0.08215078761043489</v>
+        <v>0.01518102440349708</v>
       </c>
     </row>
     <row r="254" spans="1:4">
@@ -3916,13 +3916,13 @@
         <v>252</v>
       </c>
       <c r="B254">
-        <v>0.02174277663982416</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="C254">
-        <v>164.215564776616</v>
+        <v>0.04818375329972202</v>
       </c>
       <c r="D254">
-        <v>-0.06513702593832234</v>
+        <v>0.03364237911341017</v>
       </c>
     </row>
     <row r="255" spans="1:4">
@@ -3930,13 +3930,13 @@
         <v>253</v>
       </c>
       <c r="B255">
-        <v>0.04818375329972202</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="C255">
-        <v>164.8997753029317</v>
+        <v>-0.0388336734492345</v>
       </c>
       <c r="D255">
-        <v>-0.05246702433172886</v>
+        <v>-0.02711405972089465</v>
       </c>
     </row>
     <row r="256" spans="1:4">
@@ -3944,13 +3944,13 @@
         <v>254</v>
       </c>
       <c r="B256">
-        <v>-0.0388336734492345</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="C256">
-        <v>165.5839858292475</v>
+        <v>0.03200131642190573</v>
       </c>
       <c r="D256">
-        <v>-0.03590816623676402</v>
+        <v>0.02234363961846373</v>
       </c>
     </row>
     <row r="257" spans="1:4">
@@ -3958,13 +3958,13 @@
         <v>255</v>
       </c>
       <c r="B257">
-        <v>0.03200131642190573</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="C257">
-        <v>166.2681963555633</v>
+        <v>-0.01444169654121552</v>
       </c>
       <c r="D257">
-        <v>-0.05552151384576152</v>
+        <v>-0.01008333715844423</v>
       </c>
     </row>
     <row r="258" spans="1:4">
@@ -3972,13 +3972,13 @@
         <v>256</v>
       </c>
       <c r="B258">
-        <v>-0.01444169654121552</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="C258">
-        <v>166.9524068818791</v>
+        <v>-0.04702284638072207</v>
       </c>
       <c r="D258">
-        <v>-0.06984494297809782</v>
+        <v>-0.03283182227609956</v>
       </c>
     </row>
     <row r="259" spans="1:4">
@@ -3986,13 +3986,13 @@
         <v>257</v>
       </c>
       <c r="B259">
-        <v>-0.04702284638072207</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="C259">
-        <v>167.6366174081949</v>
+        <v>0.01487658062680364</v>
       </c>
       <c r="D259">
-        <v>-0.06742041284430622</v>
+        <v>0.01038697758235925</v>
       </c>
     </row>
     <row r="260" spans="1:4">
@@ -4000,13 +4000,13 @@
         <v>258</v>
       </c>
       <c r="B260">
-        <v>0.01487658062680364</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="C260">
-        <v>168.3208279345106</v>
+        <v>-0.02364856669964066</v>
       </c>
       <c r="D260">
-        <v>-0.06546756780037494</v>
+        <v>-0.01651166610971894</v>
       </c>
     </row>
     <row r="261" spans="1:4">
@@ -4014,13 +4014,13 @@
         <v>259</v>
       </c>
       <c r="B261">
-        <v>-0.02364856669964066</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="C261">
-        <v>169.0050384608264</v>
+        <v>0.07329431656790497</v>
       </c>
       <c r="D261">
-        <v>-0.07748000430795138</v>
+        <v>0.05117482586915836</v>
       </c>
     </row>
     <row r="262" spans="1:4">
@@ -4028,13 +4028,13 @@
         <v>260</v>
       </c>
       <c r="B262">
-        <v>0.07329431656790497</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="C262">
-        <v>169.6892489871422</v>
+        <v>0.02389432019943616</v>
       </c>
       <c r="D262">
-        <v>-0.06368257227469581</v>
+        <v>0.01668325366449366</v>
       </c>
     </row>
     <row r="263" spans="1:4">
@@ -4042,13 +4042,13 @@
         <v>261</v>
       </c>
       <c r="B263">
-        <v>0.02389432019943616</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="C263">
-        <v>170.373459513458</v>
+        <v>0.04875790142161129</v>
       </c>
       <c r="D263">
-        <v>-0.0482090641477454</v>
+        <v>0.03404325508219783</v>
       </c>
     </row>
     <row r="264" spans="1:4">
@@ -4056,13 +4056,13 @@
         <v>262</v>
       </c>
       <c r="B264">
-        <v>0.04875790142161129</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="C264">
-        <v>171.0576700397738</v>
+        <v>0.04182939142628239</v>
       </c>
       <c r="D264">
-        <v>-0.05819594072448643</v>
+        <v>0.02920570001453871</v>
       </c>
     </row>
     <row r="265" spans="1:4">
@@ -4070,13 +4070,13 @@
         <v>263</v>
       </c>
       <c r="B265">
-        <v>0.04182939142628239</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="C265">
-        <v>171.7418805660895</v>
+        <v>-0.02151764020751568</v>
       </c>
       <c r="D265">
-        <v>-0.06848064575517586</v>
+        <v>-0.01502383189172141</v>
       </c>
     </row>
     <row r="266" spans="1:4">
@@ -4084,13 +4084,13 @@
         <v>264</v>
       </c>
       <c r="B266">
-        <v>-0.02151764020751568</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="C266">
-        <v>172.4260910924053</v>
+        <v>0.01144198821877396</v>
       </c>
       <c r="D266">
-        <v>-0.08290216692518615</v>
+        <v>0.007988910765683066</v>
       </c>
     </row>
     <row r="267" spans="1:4">
@@ -4098,13 +4098,13 @@
         <v>265</v>
       </c>
       <c r="B267">
-        <v>0.01144198821877396</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="C267">
-        <v>173.1103016187211</v>
+        <v>-0.04611676012242416</v>
       </c>
       <c r="D267">
-        <v>-0.07491963849874225</v>
+        <v>-0.03219918377611609</v>
       </c>
     </row>
     <row r="268" spans="1:4">
@@ -4112,13 +4112,13 @@
         <v>266</v>
       </c>
       <c r="B268">
-        <v>-0.04611676012242416</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="C268">
-        <v>173.7945121450369</v>
+        <v>-0.005349273540297794</v>
       </c>
       <c r="D268">
-        <v>-0.06866432236519307</v>
+        <v>-0.003734916358727713</v>
       </c>
     </row>
     <row r="269" spans="1:4">
@@ -4126,13 +4126,13 @@
         <v>267</v>
       </c>
       <c r="B269">
-        <v>-0.005349273540297794</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="C269">
-        <v>174.4787226713527</v>
+        <v>0.040024045443948</v>
       </c>
       <c r="D269">
-        <v>-0.03950373668808741</v>
+        <v>0.02794518936916074</v>
       </c>
     </row>
     <row r="270" spans="1:4">
@@ -4140,13 +4140,13 @@
         <v>268</v>
       </c>
       <c r="B270">
-        <v>0.040024045443948</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="C270">
-        <v>175.1629331976685</v>
+        <v>-0.02571428445690316</v>
       </c>
       <c r="D270">
-        <v>-0.04607605753912002</v>
+        <v>-0.01795397093597101</v>
       </c>
     </row>
     <row r="271" spans="1:4">
@@ -4154,13 +4154,13 @@
         <v>269</v>
       </c>
       <c r="B271">
-        <v>-0.02571428445690316</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="C271">
-        <v>175.8471437239842</v>
+        <v>-0.02509492524463663</v>
       </c>
       <c r="D271">
-        <v>-0.03535123177637403</v>
+        <v>-0.01752152813109359</v>
       </c>
     </row>
     <row r="272" spans="1:4">
@@ -4168,13 +4168,13 @@
         <v>270</v>
       </c>
       <c r="B272">
-        <v>-0.02509492524463663</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="C272">
-        <v>176.5313542503</v>
+        <v>0.02103192701747325</v>
       </c>
       <c r="D272">
-        <v>-0.04199656238638641</v>
+        <v>0.0146847020780237</v>
       </c>
     </row>
     <row r="273" spans="1:4">
@@ -4182,13 +4182,13 @@
         <v>271</v>
       </c>
       <c r="B273">
-        <v>0.02103192701747325</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="C273">
-        <v>177.2155647766158</v>
+        <v>0.005392074390845991</v>
       </c>
       <c r="D273">
-        <v>-0.04315387402811925</v>
+        <v>0.00376480034123032</v>
       </c>
     </row>
     <row r="274" spans="1:4">
@@ -4196,13 +4196,13 @@
         <v>272</v>
       </c>
       <c r="B274">
-        <v>0.005392074390845991</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="C274">
-        <v>177.8997753029316</v>
+        <v>0.01549372041740682</v>
       </c>
       <c r="D274">
-        <v>-0.02567148489397933</v>
+        <v>0.01081787076480385</v>
       </c>
     </row>
     <row r="275" spans="1:4">
@@ -4210,13 +4210,13 @@
         <v>273</v>
       </c>
       <c r="B275">
-        <v>0.01549372041740682</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="C275">
-        <v>178.5839858292474</v>
+        <v>0.02603682473200752</v>
       </c>
       <c r="D275">
-        <v>-0.01889768466860363</v>
+        <v>0.01817917178628475</v>
       </c>
     </row>
     <row r="276" spans="1:4">
@@ -4224,13 +4224,13 @@
         <v>274</v>
       </c>
       <c r="B276">
-        <v>0.02603682473200752</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="C276">
-        <v>179.2681963555631</v>
+        <v>0.0193893988609144</v>
       </c>
       <c r="D276">
-        <v>-0.01343241150259127</v>
+        <v>0.01353787246922022</v>
       </c>
     </row>
     <row r="277" spans="1:4">
@@ -4238,13 +4238,13 @@
         <v>275</v>
       </c>
       <c r="B277">
-        <v>0.0193893988609144</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="C277">
-        <v>179.9524068818789</v>
+        <v>0.02534066800097889</v>
       </c>
       <c r="D277">
-        <v>-0.0128597247528914</v>
+        <v>0.01769310818468166</v>
       </c>
     </row>
     <row r="278" spans="1:4">
@@ -4252,13 +4252,13 @@
         <v>276</v>
       </c>
       <c r="B278">
-        <v>0.02534066800097889</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="C278">
-        <v>180.6366174081947</v>
+        <v>-0.03001507273611637</v>
       </c>
       <c r="D278">
-        <v>-0.009225143473032858</v>
+        <v>-0.02095682438484579</v>
       </c>
     </row>
     <row r="279" spans="1:4">
@@ -4266,13 +4266,13 @@
         <v>277</v>
       </c>
       <c r="B279">
-        <v>-0.03001507273611637</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="C279">
-        <v>181.3208279345105</v>
+        <v>-0.02191970365326412</v>
       </c>
       <c r="D279">
-        <v>0.002381921414193423</v>
+        <v>-0.01530455661620216</v>
       </c>
     </row>
     <row r="280" spans="1:4">
@@ -4280,13 +4280,13 @@
         <v>278</v>
       </c>
       <c r="B280">
-        <v>-0.02191970365326412</v>
+        <v>0.5017182130584192</v>
       </c>
       <c r="C280">
-        <v>181.8225461475689</v>
+        <v>0.003998630800343683</v>
       </c>
       <c r="D280">
-        <v>0.01737309390747201</v>
+        <v>0.00264140245595193</v>
       </c>
     </row>
     <row r="281" spans="1:4">
@@ -4294,13 +4294,13 @@
         <v>279</v>
       </c>
       <c r="B281">
-        <v>0.003998630800343683</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="C281">
-        <v>182.5067566738847</v>
+        <v>0.002988515127783309</v>
       </c>
       <c r="D281">
-        <v>0.01972099506118681</v>
+        <v>0.002086611192151101</v>
       </c>
     </row>
     <row r="282" spans="1:4">
@@ -4308,13 +4308,13 @@
         <v>280</v>
       </c>
       <c r="B282">
-        <v>0.002988515127783309</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="C282">
-        <v>183.1909672002004</v>
+        <v>-0.01838310127881915</v>
       </c>
       <c r="D282">
-        <v>0.03612314075933053</v>
+        <v>-0.01283526541934659</v>
       </c>
     </row>
     <row r="283" spans="1:4">
@@ -4322,13 +4322,13 @@
         <v>281</v>
       </c>
       <c r="B283">
-        <v>-0.01838310127881915</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="C283">
-        <v>183.8751777265162</v>
+        <v>0.02111474972583505</v>
       </c>
       <c r="D283">
-        <v>0.03670491700358561</v>
+        <v>0.01474252972247005</v>
       </c>
     </row>
     <row r="284" spans="1:4">
@@ -4336,13 +4336,13 @@
         <v>282</v>
       </c>
       <c r="B284">
-        <v>0.02111474972583505</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="C284">
-        <v>184.559388252832</v>
+        <v>0.02367971450729023</v>
       </c>
       <c r="D284">
-        <v>0.02953940246385908</v>
+        <v>0.01653341382096468</v>
       </c>
     </row>
     <row r="285" spans="1:4">
@@ -4350,13 +4350,13 @@
         <v>283</v>
       </c>
       <c r="B285">
-        <v>0.02367971450729023</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="C285">
-        <v>185.2435987791478</v>
+        <v>-0.01528330771642405</v>
       </c>
       <c r="D285">
-        <v>0.02275117595332278</v>
+        <v>-0.01067095850969774</v>
       </c>
     </row>
     <row r="286" spans="1:4">
@@ -4364,13 +4364,13 @@
         <v>284</v>
       </c>
       <c r="B286">
-        <v>-0.01528330771642405</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="C286">
-        <v>185.9278093054636</v>
+        <v>-0.01573908624471798</v>
       </c>
       <c r="D286">
-        <v>-0.03081414393367338</v>
+        <v>-0.01098918764276747</v>
       </c>
     </row>
     <row r="287" spans="1:4">
@@ -4378,13 +4378,13 @@
         <v>285</v>
       </c>
       <c r="B287">
-        <v>-0.01573908624471798</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="C287">
-        <v>186.6120198317793</v>
+        <v>-0.02206981773395622</v>
       </c>
       <c r="D287">
-        <v>-0.01801390012585725</v>
+        <v>-0.01540936777073158</v>
       </c>
     </row>
     <row r="288" spans="1:4">
@@ -4392,13 +4392,13 @@
         <v>286</v>
       </c>
       <c r="B288">
-        <v>-0.02206981773395622</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="C288">
-        <v>187.2962303580951</v>
+        <v>0.01221597537117614</v>
       </c>
       <c r="D288">
-        <v>-0.01183864529873492</v>
+        <v>0.00852931634695963</v>
       </c>
     </row>
     <row r="289" spans="1:4">
@@ -4406,13 +4406,13 @@
         <v>287</v>
       </c>
       <c r="B289">
-        <v>0.01221597537117614</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="C289">
-        <v>187.9804408844109</v>
+        <v>0.009572754864638711</v>
       </c>
       <c r="D289">
-        <v>0.002008373323031618</v>
+        <v>0.006683793317482698</v>
       </c>
     </row>
     <row r="290" spans="1:4">
@@ -4420,13 +4420,13 @@
         <v>288</v>
       </c>
       <c r="B290">
-        <v>0.009572754864638711</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="C290">
-        <v>188.6646514107267</v>
+        <v>0.04462558445273057</v>
       </c>
       <c r="D290">
-        <v>-0.003039834138028453</v>
+        <v>0.03115802998943476</v>
       </c>
     </row>
     <row r="291" spans="1:4">
@@ -4434,13 +4434,13 @@
         <v>289</v>
       </c>
       <c r="B291">
-        <v>0.04462558445273057</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="C291">
-        <v>189.3488619370425</v>
+        <v>-0.01005787957882021</v>
       </c>
       <c r="D291">
-        <v>-0.00276497462126105</v>
+        <v>-0.007022512251440729</v>
       </c>
     </row>
     <row r="292" spans="1:4">
@@ -4448,13 +4448,13 @@
         <v>290</v>
       </c>
       <c r="B292">
-        <v>-0.01005787957882021</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C292">
-        <v>190.0710346886008</v>
+        <v>0.01613348572351558</v>
       </c>
       <c r="D292">
-        <v>-0.004674383671272681</v>
+        <v>0.01138663932977753</v>
       </c>
     </row>
     <row r="293" spans="1:4">
@@ -4462,13 +4462,13 @@
         <v>291</v>
       </c>
       <c r="B293">
-        <v>0.01613348572351558</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C293">
-        <v>190.7932074401591</v>
+        <v>-0.009996651591030137</v>
       </c>
       <c r="D293">
-        <v>-0.002267109100004122</v>
+        <v>-0.007055404400711429</v>
       </c>
     </row>
     <row r="294" spans="1:4">
@@ -4476,13 +4476,13 @@
         <v>292</v>
       </c>
       <c r="B294">
-        <v>-0.009996651591030137</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C294">
-        <v>191.5153801917175</v>
+        <v>-0.001740957966367418</v>
       </c>
       <c r="D294">
-        <v>-0.000998543011410677</v>
+        <v>-0.001228727678014088</v>
       </c>
     </row>
     <row r="295" spans="1:4">
@@ -4490,13 +4490,13 @@
         <v>293</v>
       </c>
       <c r="B295">
-        <v>-0.001740957966367418</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C295">
-        <v>192.2375529432758</v>
+        <v>0.0262989704213501</v>
       </c>
       <c r="D295">
-        <v>-0.01912813329638312</v>
+        <v>0.01856120221409583</v>
       </c>
     </row>
     <row r="296" spans="1:4">
@@ -4504,13 +4504,13 @@
         <v>294</v>
       </c>
       <c r="B296">
-        <v>0.0262989704213501</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C296">
-        <v>192.9597256948341</v>
+        <v>0.01018990999459035</v>
       </c>
       <c r="D296">
-        <v>-0.01055597822207457</v>
+        <v>0.007191801691197842</v>
       </c>
     </row>
     <row r="297" spans="1:4">
@@ -4518,13 +4518,13 @@
         <v>295</v>
       </c>
       <c r="B297">
-        <v>0.01018990999459035</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C297">
-        <v>193.6818984463925</v>
+        <v>0.008221476837904085</v>
       </c>
       <c r="D297">
-        <v>-0.01984426674527033</v>
+        <v>0.005802527309698723</v>
       </c>
     </row>
     <row r="298" spans="1:4">
@@ -4532,13 +4532,13 @@
         <v>296</v>
       </c>
       <c r="B298">
-        <v>0.008221476837904085</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C298">
-        <v>194.4040711979508</v>
+        <v>0.0008614996368914163</v>
       </c>
       <c r="D298">
-        <v>-0.007241431915659725</v>
+        <v>0.0006080264250470538</v>
       </c>
     </row>
     <row r="299" spans="1:4">
@@ -4546,13 +4546,13 @@
         <v>297</v>
       </c>
       <c r="B299">
-        <v>0.0008614996368914163</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C299">
-        <v>195.1262439495091</v>
+        <v>0.005467544786903922</v>
       </c>
       <c r="D299">
-        <v>0.002173432157337203</v>
+        <v>0.00385886606123417</v>
       </c>
     </row>
     <row r="300" spans="1:4">
@@ -4560,13 +4560,13 @@
         <v>298</v>
       </c>
       <c r="B300">
-        <v>0.005467544786903922</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C300">
-        <v>195.8484167010675</v>
+        <v>0.01746064875948505</v>
       </c>
       <c r="D300">
-        <v>0.003464856220519072</v>
+        <v>0.01232332016127139</v>
       </c>
     </row>
     <row r="301" spans="1:4">
@@ -4574,13 +4574,13 @@
         <v>299</v>
       </c>
       <c r="B301">
-        <v>0.01746064875948505</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C301">
-        <v>196.5705894526258</v>
+        <v>0.02255140295511371</v>
       </c>
       <c r="D301">
-        <v>0.01460121750652919</v>
+        <v>0.01591625617866813</v>
       </c>
     </row>
     <row r="302" spans="1:4">
@@ -4588,13 +4588,13 @@
         <v>300</v>
       </c>
       <c r="B302">
-        <v>0.02255140295511371</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C302">
-        <v>197.2927622041841</v>
+        <v>0.003531976237344914</v>
       </c>
       <c r="D302">
-        <v>0.02426035481441381</v>
+        <v>0.002492786755770447</v>
       </c>
     </row>
     <row r="303" spans="1:4">
@@ -4602,13 +4602,13 @@
         <v>301</v>
       </c>
       <c r="B303">
-        <v>0.003531976237344914</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C303">
-        <v>198.0149349557425</v>
+        <v>0.02467394709340898</v>
       </c>
       <c r="D303">
-        <v>0.02415178782929914</v>
+        <v>0.01741429850990931</v>
       </c>
     </row>
     <row r="304" spans="1:4">
@@ -4616,13 +4616,13 @@
         <v>302</v>
       </c>
       <c r="B304">
-        <v>0.02467394709340898</v>
+        <v>0.5017182130584192</v>
       </c>
       <c r="C304">
-        <v>198.5166531688009</v>
+        <v>0.0009594883465311455</v>
       </c>
       <c r="D304">
-        <v>0.01523950724706651</v>
+        <v>0.0006338156737968387</v>
       </c>
     </row>
     <row r="305" spans="1:4">
@@ -4630,13 +4630,13 @@
         <v>303</v>
       </c>
       <c r="B305">
-        <v>0.0009594883465311455</v>
+        <v>0.5017182130584192</v>
       </c>
       <c r="C305">
-        <v>199.0183713818593</v>
+        <v>-0.01181764942391261</v>
       </c>
       <c r="D305">
-        <v>0.009551345957291159</v>
+        <v>-0.007806464205002056</v>
       </c>
     </row>
     <row r="306" spans="1:4">
@@ -4644,13 +4644,13 @@
         <v>304</v>
       </c>
       <c r="B306">
-        <v>-0.01181764942391261</v>
+        <v>0.5017182130584192</v>
       </c>
       <c r="C306">
-        <v>199.5200895949177</v>
+        <v>-0.01119541111344802</v>
       </c>
       <c r="D306">
-        <v>0.02006109040607797</v>
+        <v>-0.007395428057001771</v>
       </c>
     </row>
     <row r="307" spans="1:4">
@@ -4658,13 +4658,13 @@
         <v>305</v>
       </c>
       <c r="B307">
-        <v>-0.01119541111344802</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C307">
-        <v>200.242262346476</v>
+        <v>-0.08057896163444322</v>
       </c>
       <c r="D307">
-        <v>0.01996999179849113</v>
+        <v>-0.05687075870789885</v>
       </c>
     </row>
     <row r="308" spans="1:4">
@@ -4672,13 +4672,13 @@
         <v>306</v>
       </c>
       <c r="B308">
-        <v>-0.08057896163444322</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C308">
-        <v>200.9644350980344</v>
+        <v>0.01925556230929804</v>
       </c>
       <c r="D308">
-        <v>0.03664980765911073</v>
+        <v>0.01359012843631522</v>
       </c>
     </row>
     <row r="309" spans="1:4">
@@ -4686,13 +4686,13 @@
         <v>307</v>
       </c>
       <c r="B309">
-        <v>0.01925556230929804</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C309">
-        <v>201.6866078495927</v>
+        <v>0.009289510878444318</v>
       </c>
       <c r="D309">
-        <v>0.0466642148019548</v>
+        <v>0.006556320917600253</v>
       </c>
     </row>
     <row r="310" spans="1:4">
@@ -4700,13 +4700,13 @@
         <v>308</v>
       </c>
       <c r="B310">
-        <v>0.009289510878444318</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C310">
-        <v>202.408780601151</v>
+        <v>0.02083023838238329</v>
       </c>
       <c r="D310">
-        <v>0.04882852384699961</v>
+        <v>0.01470149821794386</v>
       </c>
     </row>
     <row r="311" spans="1:4">
@@ -4714,13 +4714,13 @@
         <v>309</v>
       </c>
       <c r="B311">
-        <v>0.02083023838238329</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C311">
-        <v>203.1309533527094</v>
+        <v>-0.00759407982974114</v>
       </c>
       <c r="D311">
-        <v>0.05362287680526125</v>
+        <v>-0.005359725080164396</v>
       </c>
     </row>
     <row r="312" spans="1:4">
@@ -4728,13 +4728,13 @@
         <v>310</v>
       </c>
       <c r="B312">
-        <v>-0.00759407982974114</v>
+        <v>0.5017182130584192</v>
       </c>
       <c r="C312">
-        <v>203.6326715657678</v>
+        <v>0.0004533091646070631</v>
       </c>
       <c r="D312">
-        <v>0.04849483300283356</v>
+        <v>0.0002994454853385563</v>
       </c>
     </row>
     <row r="313" spans="1:4">
@@ -4742,13 +4742,13 @@
         <v>311</v>
       </c>
       <c r="B313">
-        <v>0.0004533091646070631</v>
+        <v>0.5017182130584192</v>
       </c>
       <c r="C313">
-        <v>204.1343897788262</v>
+        <v>-0.003149072775553208</v>
       </c>
       <c r="D313">
-        <v>0.05363863715573639</v>
+        <v>-0.002080204194546461</v>
       </c>
     </row>
     <row r="314" spans="1:4">
@@ -4756,13 +4756,13 @@
         <v>312</v>
       </c>
       <c r="B314">
-        <v>-0.003149072775553208</v>
+        <v>0.5017182130584192</v>
       </c>
       <c r="C314">
-        <v>204.6361079918846</v>
+        <v>0.003970172245500336</v>
       </c>
       <c r="D314">
-        <v>0.06040907934052285</v>
+        <v>0.002622603396871607</v>
       </c>
     </row>
     <row r="315" spans="1:4">
@@ -4770,13 +4770,13 @@
         <v>313</v>
       </c>
       <c r="B315">
-        <v>0.003970172245500336</v>
+        <v>0.5017182130584192</v>
       </c>
       <c r="C315">
-        <v>205.137826204943</v>
+        <v>0.002092169267530863</v>
       </c>
       <c r="D315">
-        <v>0.05880168064576727</v>
+        <v>0.001382038331983085</v>
       </c>
     </row>
     <row r="316" spans="1:4">
@@ -4784,13 +4784,13 @@
         <v>314</v>
       </c>
       <c r="B316">
-        <v>0.002092169267530863</v>
+        <v>0.5017182130584192</v>
       </c>
       <c r="C316">
-        <v>205.6395444180014</v>
+        <v>-0.02990003592891366</v>
       </c>
       <c r="D316">
-        <v>0.05682953583339683</v>
+        <v>-0.01975126794124011</v>
       </c>
     </row>
     <row r="317" spans="1:4">
@@ -4798,13 +4798,13 @@
         <v>315</v>
       </c>
       <c r="B317">
-        <v>-0.02990003592891366</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C317">
-        <v>206.3617171695597</v>
+        <v>0.01289519704753772</v>
       </c>
       <c r="D317">
-        <v>0.0653450104122255</v>
+        <v>0.009101130430400771</v>
       </c>
     </row>
     <row r="318" spans="1:4">
@@ -4812,13 +4812,13 @@
         <v>316</v>
       </c>
       <c r="B318">
-        <v>0.01289519704753772</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C318">
-        <v>207.0838899211181</v>
+        <v>-0.01397248529718809</v>
       </c>
       <c r="D318">
-        <v>0.05194995222018147</v>
+        <v>-0.009861455444052133</v>
       </c>
     </row>
     <row r="319" spans="1:4">
@@ -4826,13 +4826,13 @@
         <v>317</v>
       </c>
       <c r="B319">
-        <v>-0.01397248529718809</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C319">
-        <v>207.8060626726764</v>
+        <v>0.01895859758445972</v>
       </c>
       <c r="D319">
-        <v>0.05711166383396146</v>
+        <v>0.01338053763409498</v>
       </c>
     </row>
     <row r="320" spans="1:4">
@@ -4840,13 +4840,13 @@
         <v>318</v>
       </c>
       <c r="B320">
-        <v>0.01895859758445972</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C320">
-        <v>208.5282354242347</v>
+        <v>0.01416289443490637</v>
       </c>
       <c r="D320">
-        <v>0.04508385221664227</v>
+        <v>0.009995841788915714</v>
       </c>
     </row>
     <row r="321" spans="1:4">
@@ -4854,13 +4854,13 @@
         <v>319</v>
       </c>
       <c r="B321">
-        <v>0.01416289443490637</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C321">
-        <v>209.2504081757931</v>
+        <v>0.001942704911694015</v>
       </c>
       <c r="D321">
-        <v>0.04577077839028521</v>
+        <v>0.001371115984030932</v>
       </c>
     </row>
     <row r="322" spans="1:4">
@@ -4868,13 +4868,13 @@
         <v>320</v>
       </c>
       <c r="B322">
-        <v>0.001942704911694015</v>
+        <v>0.5017182130584192</v>
       </c>
       <c r="C322">
-        <v>209.7521263888515</v>
+        <v>0.01836652661947191</v>
       </c>
       <c r="D322">
-        <v>0.04187857920507224</v>
+        <v>0.01213250008373113</v>
       </c>
     </row>
     <row r="323" spans="1:4">
@@ -4882,13 +4882,13 @@
         <v>321</v>
       </c>
       <c r="B323">
-        <v>0.01836652661947191</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C323">
-        <v>210.4742991404098</v>
+        <v>0.01453035763056842</v>
       </c>
       <c r="D323">
-        <v>0.04989193058777901</v>
+        <v>0.01025518877367007</v>
       </c>
     </row>
     <row r="324" spans="1:4">
@@ -4896,13 +4896,13 @@
         <v>322</v>
       </c>
       <c r="B324">
-        <v>0.01453035763056842</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C324">
-        <v>211.1964718919681</v>
+        <v>-0.0001633186350193938</v>
       </c>
       <c r="D324">
-        <v>0.05911413045357097</v>
+        <v>-0.0001152664975608372</v>
       </c>
     </row>
     <row r="325" spans="1:4">
@@ -4910,13 +4910,13 @@
         <v>323</v>
       </c>
       <c r="B325">
-        <v>-0.0001633186350193938</v>
+        <v>0.5017182130584192</v>
       </c>
       <c r="C325">
-        <v>211.6981901050266</v>
+        <v>-0.01469848493146575</v>
       </c>
       <c r="D325">
-        <v>0.05653159157104238</v>
+        <v>-0.00970947710236441</v>
       </c>
     </row>
     <row r="326" spans="1:4">
@@ -4924,13 +4924,13 @@
         <v>324</v>
       </c>
       <c r="B326">
-        <v>-0.01469848493146575</v>
+        <v>0.5017182130584192</v>
       </c>
       <c r="C326">
-        <v>212.199908318085</v>
+        <v>-0.009381140128396304</v>
       </c>
       <c r="D326">
-        <v>0.05878605392815004</v>
+        <v>-0.006196962863549545</v>
       </c>
     </row>
     <row r="327" spans="1:4">
@@ -4938,13 +4938,13 @@
         <v>325</v>
       </c>
       <c r="B327">
-        <v>-0.009381140128396304</v>
+        <v>0.5017182130584192</v>
       </c>
       <c r="C327">
-        <v>212.7016265311434</v>
+        <v>0.01733308539702083</v>
       </c>
       <c r="D327">
-        <v>0.06477276526795261</v>
+        <v>0.01144983286103339</v>
       </c>
     </row>
     <row r="328" spans="1:4">
@@ -4952,13 +4952,13 @@
         <v>326</v>
       </c>
       <c r="B328">
-        <v>0.01733308539702083</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C328">
-        <v>213.4237992827017</v>
+        <v>-0.0001370407424277076</v>
       </c>
       <c r="D328">
-        <v>0.06368865969825176</v>
+        <v>-9.672017158913252e-05</v>
       </c>
     </row>
     <row r="329" spans="1:4">
@@ -4966,13 +4966,13 @@
         <v>327</v>
       </c>
       <c r="B329">
-        <v>-0.0001370407424277076</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C329">
-        <v>214.14597203426</v>
+        <v>0.02509164969308308</v>
       </c>
       <c r="D329">
-        <v>0.06752079122907885</v>
+        <v>0.01770910329860212</v>
       </c>
     </row>
     <row r="330" spans="1:4">
@@ -4980,13 +4980,13 @@
         <v>328</v>
       </c>
       <c r="B330">
-        <v>0.02509164969308308</v>
+        <v>0.5017182130584192</v>
       </c>
       <c r="C330">
-        <v>214.6476902473185</v>
+        <v>0.01651615555956631</v>
       </c>
       <c r="D330">
-        <v>0.06707392752762227</v>
+        <v>0.01091018802090279</v>
       </c>
     </row>
     <row r="331" spans="1:4">
@@ -4994,13 +4994,13 @@
         <v>329</v>
       </c>
       <c r="B331">
-        <v>0.01651615555956631</v>
+        <v>0.5017182130584192</v>
       </c>
       <c r="C331">
-        <v>215.1494084603769</v>
+        <v>0.003569463909052217</v>
       </c>
       <c r="D331">
-        <v>0.06796732584109567</v>
+        <v>0.00235790479455916</v>
       </c>
     </row>
     <row r="332" spans="1:4">
@@ -5008,13 +5008,13 @@
         <v>330</v>
       </c>
       <c r="B332">
-        <v>0.003569463909052217</v>
+        <v>0.5017182130584192</v>
       </c>
       <c r="C332">
-        <v>215.6511266734353</v>
+        <v>0.007907036146687751</v>
       </c>
       <c r="D332">
-        <v>0.07024108461511719</v>
+        <v>0.005223204076597065</v>
       </c>
     </row>
     <row r="333" spans="1:4">
@@ -5022,13 +5022,13 @@
         <v>331</v>
       </c>
       <c r="B333">
-        <v>0.007907036146687751</v>
+        <v>0.5017182130584192</v>
       </c>
       <c r="C333">
-        <v>216.1528448864937</v>
+        <v>-0.008457372258694917</v>
       </c>
       <c r="D333">
-        <v>0.06804428134165019</v>
+        <v>-0.005586743305507577</v>
       </c>
     </row>
     <row r="334" spans="1:4">
@@ -5036,13 +5036,13 @@
         <v>332</v>
       </c>
       <c r="B334">
-        <v>-0.008457372258694917</v>
+        <v>0.5017182130584192</v>
       </c>
       <c r="C334">
-        <v>216.6545630995521</v>
+        <v>0.00848336485080825</v>
       </c>
       <c r="D334">
-        <v>0.06610201832243466</v>
+        <v>0.005603913406993019</v>
       </c>
     </row>
     <row r="335" spans="1:4">
@@ -5050,13 +5050,13 @@
         <v>333</v>
       </c>
       <c r="B335">
-        <v>0.00848336485080825</v>
+        <v>0.5017182130584192</v>
       </c>
       <c r="C335">
-        <v>217.1562813126105</v>
+        <v>0.0111660805014191</v>
       </c>
       <c r="D335">
-        <v>0.06353362912196663</v>
+        <v>0.007376052937237999</v>
       </c>
     </row>
     <row r="336" spans="1:4">
@@ -5064,13 +5064,13 @@
         <v>334</v>
       </c>
       <c r="B336">
-        <v>0.0111660805014191</v>
+        <v>0.5017182130584192</v>
       </c>
       <c r="C336">
-        <v>217.6579995256689</v>
+        <v>-0.002650985376383197</v>
       </c>
       <c r="D336">
-        <v>0.06028438535615334</v>
+        <v>-0.001751179249474439</v>
       </c>
     </row>
     <row r="337" spans="1:4">
@@ -5078,13 +5078,13 @@
         <v>335</v>
       </c>
       <c r="B337">
-        <v>-0.002650985376383197</v>
+        <v>0.5017182130584192</v>
       </c>
       <c r="C337">
-        <v>218.1597177387273</v>
+        <v>-0.003252539071209704</v>
       </c>
       <c r="D337">
-        <v>0.07063964968417216</v>
+        <v>-0.002148551621728743</v>
       </c>
     </row>
     <row r="338" spans="1:4">
@@ -5092,13 +5092,13 @@
         <v>336</v>
       </c>
       <c r="B338">
-        <v>-0.003252539071209704</v>
+        <v>0.5017182130584192</v>
       </c>
       <c r="C338">
-        <v>218.6614359517857</v>
+        <v>0.0140440568074931</v>
       </c>
       <c r="D338">
-        <v>0.0686749483043481</v>
+        <v>0.009277177112638728</v>
       </c>
     </row>
     <row r="339" spans="1:4">
@@ -5106,13 +5106,13 @@
         <v>337</v>
       </c>
       <c r="B339">
-        <v>0.0140440568074931</v>
+        <v>0.5017182130584192</v>
       </c>
       <c r="C339">
-        <v>219.1631541648441</v>
+        <v>-0.0220916587146478</v>
       </c>
       <c r="D339">
-        <v>0.07511607182196552</v>
+        <v>-0.01459323565954304</v>
       </c>
     </row>
     <row r="340" spans="1:4">
@@ -5120,13 +5120,13 @@
         <v>338</v>
       </c>
       <c r="B340">
-        <v>-0.0220916587146478</v>
+        <v>0.5017182130584192</v>
       </c>
       <c r="C340">
-        <v>219.6648723779026</v>
+        <v>0.008512898542149649</v>
       </c>
       <c r="D340">
-        <v>0.07352836540427872</v>
+        <v>0.005623422676224825</v>
       </c>
     </row>
     <row r="341" spans="1:4">
@@ -5134,13 +5134,13 @@
         <v>339</v>
       </c>
       <c r="B341">
-        <v>0.008512898542149649</v>
+        <v>0.5017182130584192</v>
       </c>
       <c r="C341">
-        <v>220.166590590961</v>
+        <v>-0.01983674169416538</v>
       </c>
       <c r="D341">
-        <v>0.08081717034661461</v>
+        <v>-0.01310368994920686</v>
       </c>
     </row>
     <row r="342" spans="1:4">
@@ -5148,13 +5148,13 @@
         <v>340</v>
       </c>
       <c r="B342">
-        <v>-0.01983674169416538</v>
+        <v>0.5017182130584192</v>
       </c>
       <c r="C342">
-        <v>220.6683088040194</v>
+        <v>0.001132905760670155</v>
       </c>
       <c r="D342">
-        <v>0.07086253215098455</v>
+        <v>0.0007483711820403712</v>
       </c>
     </row>
     <row r="343" spans="1:4">
@@ -5162,13 +5162,13 @@
         <v>341</v>
       </c>
       <c r="B343">
-        <v>0.001132905760670155</v>
+        <v>0.5017182130584192</v>
       </c>
       <c r="C343">
-        <v>221.1700270170778</v>
+        <v>-0.006419168533379427</v>
       </c>
       <c r="D343">
-        <v>0.08891040549584626</v>
+        <v>-0.004240353354898489</v>
       </c>
     </row>
     <row r="344" spans="1:4">
@@ -5176,13 +5176,13 @@
         <v>342</v>
       </c>
       <c r="B344">
-        <v>-0.006419168533379427</v>
+        <v>0.5017182130584192</v>
       </c>
       <c r="C344">
-        <v>221.6717452301362</v>
+        <v>0.01321593541209509</v>
       </c>
       <c r="D344">
-        <v>0.1039125801005509</v>
+        <v>0.00873013938976553</v>
       </c>
     </row>
     <row r="345" spans="1:4">
@@ -5190,13 +5190,13 @@
         <v>343</v>
       </c>
       <c r="B345">
-        <v>0.01321593541209509</v>
+        <v>0.5017182130584192</v>
       </c>
       <c r="C345">
-        <v>222.1734634431946</v>
+        <v>0.01520961604738336</v>
       </c>
       <c r="D345">
-        <v>0.08520501233961923</v>
+        <v>0.01004711842318407</v>
       </c>
     </row>
     <row r="346" spans="1:4">
@@ -5204,13 +5204,13 @@
         <v>344</v>
       </c>
       <c r="B346">
-        <v>0.01520961604738336</v>
+        <v>0.5017182130584192</v>
       </c>
       <c r="C346">
-        <v>222.675181656253</v>
+        <v>-0.004259225065854189</v>
       </c>
       <c r="D346">
-        <v>0.08607583193012425</v>
+        <v>-0.002813544963549099</v>
       </c>
     </row>
     <row r="347" spans="1:4">
@@ -5218,13 +5218,13 @@
         <v>345</v>
       </c>
       <c r="B347">
-        <v>-0.004259225065854189</v>
+        <v>0.5017182130584192</v>
       </c>
       <c r="C347">
-        <v>223.1768998693114</v>
+        <v>0.003718148309935998</v>
       </c>
       <c r="D347">
-        <v>0.0721548682248698</v>
+        <v>0.00245612224979969</v>
       </c>
     </row>
     <row r="348" spans="1:4">
@@ -5232,13 +5232,13 @@
         <v>346</v>
       </c>
       <c r="B348">
-        <v>0.003718148309935998</v>
+        <v>0.5017182130584192</v>
       </c>
       <c r="C348">
-        <v>223.6786180823698</v>
+        <v>0.009873520655593993</v>
       </c>
       <c r="D348">
-        <v>0.08910657576533321</v>
+        <v>0.006522217981799296</v>
       </c>
     </row>
     <row r="349" spans="1:4">
@@ -5246,13 +5246,13 @@
         <v>347</v>
       </c>
       <c r="B349">
-        <v>0.009873520655593993</v>
+        <v>0.5017182130584192</v>
       </c>
       <c r="C349">
-        <v>224.1803362954282</v>
+        <v>-0.001787949698546676</v>
       </c>
       <c r="D349">
-        <v>0.08283323545871077</v>
+        <v>-0.001181077964100558</v>
       </c>
     </row>
     <row r="350" spans="1:4">
@@ -5260,13 +5260,13 @@
         <v>348</v>
       </c>
       <c r="B350">
-        <v>-0.001787949698546676</v>
+        <v>0.5017182130584192</v>
       </c>
       <c r="C350">
-        <v>224.6820545084867</v>
+        <v>0.006320102586710341</v>
       </c>
       <c r="D350">
-        <v>0.09148868873001308</v>
+        <v>0.004174912695858291</v>
       </c>
     </row>
     <row r="351" spans="1:4">
@@ -5274,13 +5274,13 @@
         <v>349</v>
       </c>
       <c r="B351">
-        <v>0.006320102586710341</v>
+        <v>0.5017182130584192</v>
       </c>
       <c r="C351">
-        <v>225.1837727215451</v>
+        <v>-0.000736985255533007</v>
       </c>
       <c r="D351">
-        <v>0.1005472083806207</v>
+        <v>-0.0004868353096759842</v>
       </c>
     </row>
     <row r="352" spans="1:4">
@@ -5288,13 +5288,13 @@
         <v>350</v>
       </c>
       <c r="B352">
-        <v>-0.000736985255533007</v>
+        <v>0.5017182130584192</v>
       </c>
       <c r="C352">
-        <v>225.6854909346035</v>
+        <v>0.001473427763771795</v>
       </c>
       <c r="D352">
-        <v>0.103688751264715</v>
+        <v>0.000973312093119492</v>
       </c>
     </row>
     <row r="353" spans="1:4">
@@ -5302,13 +5302,13 @@
         <v>351</v>
       </c>
       <c r="B353">
-        <v>0.001473427763771795</v>
+        <v>0.5017182130584192</v>
       </c>
       <c r="C353">
-        <v>226.1872091476619</v>
+        <v>0.003749972722399519</v>
       </c>
       <c r="D353">
-        <v>0.1041523131077217</v>
+        <v>0.002477144716098191</v>
       </c>
     </row>
     <row r="354" spans="1:4">
@@ -5316,13 +5316,13 @@
         <v>352</v>
       </c>
       <c r="B354">
-        <v>0.003749972722399519</v>
+        <v>0.5017182130584192</v>
       </c>
       <c r="C354">
-        <v>226.6889273607203</v>
+        <v>-0.003623054673213666</v>
       </c>
       <c r="D354">
-        <v>0.1091985553392871</v>
+        <v>-0.002393305606272066</v>
       </c>
     </row>
     <row r="355" spans="1:4">
@@ -5330,13 +5330,13 @@
         <v>353</v>
       </c>
       <c r="B355">
-        <v>-0.003623054673213666</v>
+        <v>0.5017182130584192</v>
       </c>
       <c r="C355">
-        <v>227.1906455737787</v>
+        <v>-0.003203256838411939</v>
       </c>
       <c r="D355">
-        <v>0.09763284461913663</v>
+        <v>-0.002115996925572342</v>
       </c>
     </row>
     <row r="356" spans="1:4">
@@ -5344,13 +5344,13 @@
         <v>354</v>
       </c>
       <c r="B356">
-        <v>-0.003203256838411939</v>
+        <v>0.5017182130584192</v>
       </c>
       <c r="C356">
-        <v>227.6923637868371</v>
+        <v>-0.004235888851668257</v>
       </c>
       <c r="D356">
-        <v>0.07459839484799863</v>
+        <v>-0.002798129603506846</v>
       </c>
     </row>
     <row r="357" spans="1:4">
@@ -5358,13 +5358,13 @@
         <v>355</v>
       </c>
       <c r="B357">
-        <v>-0.004235888851668257</v>
+        <v>0.5017182130584192</v>
       </c>
       <c r="C357">
-        <v>228.1940819998955</v>
+        <v>-0.005358781076268748</v>
       </c>
       <c r="D357">
-        <v>0.07600019971711099</v>
+        <v>-0.003539886076641134</v>
       </c>
     </row>
     <row r="358" spans="1:4">
@@ -5372,13 +5372,13 @@
         <v>356</v>
       </c>
       <c r="B358">
-        <v>-0.005358781076268748</v>
+        <v>0.5017182130584192</v>
       </c>
       <c r="C358">
-        <v>228.6958002129539</v>
+        <v>0.01707831068404264</v>
       </c>
       <c r="D358">
-        <v>0.05622094254115906</v>
+        <v>0.01128153461441428</v>
       </c>
     </row>
     <row r="359" spans="1:4">
@@ -5386,13 +5386,13 @@
         <v>357</v>
       </c>
       <c r="B359">
-        <v>0.01707831068404264</v>
+        <v>0.5017182130584192</v>
       </c>
       <c r="C359">
-        <v>229.1975184260124</v>
+        <v>-0.003240263068438942</v>
       </c>
       <c r="D359">
-        <v>0.06087594537884317</v>
+        <v>-0.002140442379968994</v>
       </c>
     </row>
     <row r="360" spans="1:4">
@@ -5400,13 +5400,13 @@
         <v>358</v>
       </c>
       <c r="B360">
-        <v>-0.003240263068438942</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C360">
-        <v>229.9196911775707</v>
+        <v>0.009689460380405635</v>
       </c>
       <c r="D360">
-        <v>0.06619259208213288</v>
+        <v>0.006838595982456187</v>
       </c>
     </row>
     <row r="361" spans="1:4">
@@ -5414,13 +5414,13 @@
         <v>359</v>
       </c>
       <c r="B361">
-        <v>0.009689460380405635</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C361">
-        <v>230.641863929129</v>
+        <v>-0.002388406058013715</v>
       </c>
       <c r="D361">
-        <v>0.07679990585671972</v>
+        <v>-0.001685681496343849</v>
       </c>
     </row>
     <row r="362" spans="1:4">
@@ -5428,13 +5428,13 @@
         <v>360</v>
       </c>
       <c r="B362">
-        <v>-0.002388406058013715</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C362">
-        <v>231.3640366806873</v>
+        <v>0.01096463784867652</v>
       </c>
       <c r="D362">
-        <v>0.07197040253500485</v>
+        <v>0.007738586608257254</v>
       </c>
     </row>
     <row r="363" spans="1:4">
@@ -5442,13 +5442,13 @@
         <v>361</v>
       </c>
       <c r="B363">
-        <v>0.01096463784867652</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C363">
-        <v>232.0862094322457</v>
+        <v>-0.0149748832069454</v>
       </c>
       <c r="D363">
-        <v>0.07808076167808349</v>
+        <v>-0.01056892459603414</v>
       </c>
     </row>
     <row r="364" spans="1:4">
@@ -5456,13 +5456,13 @@
         <v>362</v>
       </c>
       <c r="B364">
-        <v>-0.0149748832069454</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C364">
-        <v>232.808382183804</v>
+        <v>0.02714963519133118</v>
       </c>
       <c r="D364">
-        <v>0.06879292484110039</v>
+        <v>0.01916158164184742</v>
       </c>
     </row>
     <row r="365" spans="1:4">
@@ -5470,13 +5470,13 @@
         <v>363</v>
       </c>
       <c r="B365">
-        <v>0.02714963519133118</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C365">
-        <v>233.5305549353623</v>
+        <v>0.02256795356503005</v>
       </c>
       <c r="D365">
-        <v>0.07418061956785495</v>
+        <v>0.01592793721456049</v>
       </c>
     </row>
     <row r="366" spans="1:4">
@@ -5484,13 +5484,13 @@
         <v>364</v>
       </c>
       <c r="B366">
-        <v>0.02256795356503005</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C366">
-        <v>234.2527276869207</v>
+        <v>-0.02814202151806455</v>
       </c>
       <c r="D366">
-        <v>0.08684711496896198</v>
+        <v>-0.01986198485117033</v>
       </c>
     </row>
     <row r="367" spans="1:4">
@@ -5498,13 +5498,13 @@
         <v>365</v>
       </c>
       <c r="B367">
-        <v>-0.02814202151806455</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C367">
-        <v>234.974900438479</v>
+        <v>0.001309984492239735</v>
       </c>
       <c r="D367">
-        <v>0.07841304813041927</v>
+        <v>0.0009245566145073117</v>
       </c>
     </row>
     <row r="368" spans="1:4">
@@ -5512,13 +5512,13 @@
         <v>366</v>
       </c>
       <c r="B368">
-        <v>0.001309984492239735</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C368">
-        <v>235.6970731900373</v>
+        <v>-0.02094147487005849</v>
       </c>
       <c r="D368">
-        <v>0.09558030497393934</v>
+        <v>-0.01478000634614225</v>
       </c>
     </row>
     <row r="369" spans="1:4">
@@ -5526,13 +5526,13 @@
         <v>367</v>
       </c>
       <c r="B369">
-        <v>-0.02094147487005849</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C369">
-        <v>236.4192459415957</v>
+        <v>0.02550065965111337</v>
       </c>
       <c r="D369">
-        <v>0.102552457582606</v>
+        <v>0.01799777302281368</v>
       </c>
     </row>
     <row r="370" spans="1:4">
@@ -5540,13 +5540,13 @@
         <v>368</v>
       </c>
       <c r="B370">
-        <v>0.02550065965111337</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C370">
-        <v>237.141418693154</v>
+        <v>-0.009437062057195966</v>
       </c>
       <c r="D370">
-        <v>0.1073564219289077</v>
+        <v>-0.006660459110915767</v>
       </c>
     </row>
     <row r="371" spans="1:4">
@@ -5554,13 +5554,13 @@
         <v>369</v>
       </c>
       <c r="B371">
-        <v>-0.009437062057195966</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C371">
-        <v>237.8635914447123</v>
+        <v>0.01302050353751927</v>
       </c>
       <c r="D371">
-        <v>0.106353809707679</v>
+        <v>0.009189568839282279</v>
       </c>
     </row>
     <row r="372" spans="1:4">
@@ -5568,13 +5568,13 @@
         <v>370</v>
       </c>
       <c r="B372">
-        <v>0.01302050353751927</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C372">
-        <v>238.5857641962707</v>
+        <v>0.01362684118999091</v>
       </c>
       <c r="D372">
-        <v>0.1000972021220882</v>
+        <v>0.009617507864926029</v>
       </c>
     </row>
     <row r="373" spans="1:4">
@@ -5582,13 +5582,13 @@
         <v>371</v>
       </c>
       <c r="B373">
-        <v>0.01362684118999091</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C373">
-        <v>239.307936947829</v>
+        <v>0.004725861136728682</v>
       </c>
       <c r="D373">
-        <v>0.1024082815470641</v>
+        <v>0.003335402975446775</v>
       </c>
     </row>
     <row r="374" spans="1:4">
@@ -5596,13 +5596,13 @@
         <v>372</v>
       </c>
       <c r="B374">
-        <v>0.004725861136728682</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C374">
-        <v>240.0301096993873</v>
+        <v>0.0006973417136615367</v>
       </c>
       <c r="D374">
-        <v>0.100611470128303</v>
+        <v>0.0004921675773697996</v>
       </c>
     </row>
     <row r="375" spans="1:4">
@@ -5610,13 +5610,13 @@
         <v>373</v>
       </c>
       <c r="B375">
-        <v>0.0006973417136615367</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C375">
-        <v>240.7522824509457</v>
+        <v>0.007591123511130782</v>
       </c>
       <c r="D375">
-        <v>0.1048231059480705</v>
+        <v>0.005357638579185193</v>
       </c>
     </row>
     <row r="376" spans="1:4">
@@ -5624,13 +5624,13 @@
         <v>374</v>
       </c>
       <c r="B376">
-        <v>0.007591123511130782</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C376">
-        <v>241.474455202504</v>
+        <v>-0.01739843918341499</v>
       </c>
       <c r="D376">
-        <v>0.09684167058395224</v>
+        <v>-0.01227941408804534</v>
       </c>
     </row>
     <row r="377" spans="1:4">
@@ -5638,13 +5638,13 @@
         <v>375</v>
       </c>
       <c r="B377">
-        <v>-0.01739843918341499</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C377">
-        <v>242.1966279540623</v>
+        <v>-0.03465100270650368</v>
       </c>
       <c r="D377">
-        <v>0.09871313224161388</v>
+        <v>-0.02445587252474573</v>
       </c>
     </row>
     <row r="378" spans="1:4">
@@ -5652,13 +5652,13 @@
         <v>376</v>
       </c>
       <c r="B378">
-        <v>-0.03465100270650368</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C378">
-        <v>242.9188007056207</v>
+        <v>0.002108752099408306</v>
       </c>
       <c r="D378">
-        <v>0.09648614306206268</v>
+        <v>0.001488308230680436</v>
       </c>
     </row>
     <row r="379" spans="1:4">
@@ -5666,13 +5666,13 @@
         <v>377</v>
       </c>
       <c r="B379">
-        <v>0.002108752099408306</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C379">
-        <v>243.640973457179</v>
+        <v>-0.02975417692830273</v>
       </c>
       <c r="D379">
-        <v>0.09955035609079305</v>
+        <v>-0.02099980667805397</v>
       </c>
     </row>
     <row r="380" spans="1:4">
@@ -5680,13 +5680,13 @@
         <v>378</v>
       </c>
       <c r="B380">
-        <v>-0.02975417692830273</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C380">
-        <v>244.3631462087373</v>
+        <v>0.007002577336554516</v>
       </c>
       <c r="D380">
-        <v>0.1019595338046114</v>
+        <v>0.004942256365219351</v>
       </c>
     </row>
     <row r="381" spans="1:4">
@@ -5694,13 +5694,13 @@
         <v>379</v>
       </c>
       <c r="B381">
-        <v>0.007002577336554516</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C381">
-        <v>245.0853189602957</v>
+        <v>0.007997896243914226</v>
       </c>
       <c r="D381">
-        <v>0.08538584231618196</v>
+        <v>0.005644729321803941</v>
       </c>
     </row>
     <row r="382" spans="1:4">
@@ -5708,13 +5708,13 @@
         <v>380</v>
       </c>
       <c r="B382">
-        <v>0.007997896243914226</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C382">
-        <v>245.807491711854</v>
+        <v>0.01595671101171625</v>
       </c>
       <c r="D382">
-        <v>0.07886137153114983</v>
+        <v>0.01126187584590433</v>
       </c>
     </row>
     <row r="383" spans="1:4">
@@ -5722,13 +5722,13 @@
         <v>381</v>
       </c>
       <c r="B383">
-        <v>0.01595671101171625</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C383">
-        <v>246.5296644634123</v>
+        <v>-0.007265080535220569</v>
       </c>
       <c r="D383">
-        <v>0.05949311792181479</v>
+        <v>-0.005127525023049853</v>
       </c>
     </row>
     <row r="384" spans="1:4">
@@ -5736,13 +5736,13 @@
         <v>382</v>
       </c>
       <c r="B384">
-        <v>-0.007265080535220569</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C384">
-        <v>247.2518372149707</v>
+        <v>0.009191887512321806</v>
       </c>
       <c r="D384">
-        <v>0.07381276000860525</v>
+        <v>0.006487420614265577</v>
       </c>
     </row>
     <row r="385" spans="1:4">
@@ -5750,13 +5750,13 @@
         <v>383</v>
       </c>
       <c r="B385">
-        <v>0.009191887512321806</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C385">
-        <v>247.974009966529</v>
+        <v>-0.01397180582012947</v>
       </c>
       <c r="D385">
-        <v>0.07284197154908659</v>
+        <v>-0.009860975884933171</v>
       </c>
     </row>
     <row r="386" spans="1:4">
@@ -5764,13 +5764,13 @@
         <v>384</v>
       </c>
       <c r="B386">
-        <v>-0.01397180582012947</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C386">
-        <v>248.6961827180873</v>
+        <v>0.008104774648991508</v>
       </c>
       <c r="D386">
-        <v>0.09502972902361119</v>
+        <v>0.005720161616573512</v>
       </c>
     </row>
     <row r="387" spans="1:4">
@@ -5778,13 +5778,13 @@
         <v>385</v>
       </c>
       <c r="B387">
-        <v>0.008104774648991508</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C387">
-        <v>249.4183554696457</v>
+        <v>0.01905436295576823</v>
       </c>
       <c r="D387">
-        <v>0.1052699254227179</v>
+        <v>0.01344812660786416</v>
       </c>
     </row>
     <row r="388" spans="1:4">
@@ -5792,13 +5792,13 @@
         <v>386</v>
       </c>
       <c r="B388">
-        <v>0.01905436295576823</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C388">
-        <v>250.140528221204</v>
+        <v>-0.01268746923642006</v>
       </c>
       <c r="D388">
-        <v>0.09420300913780869</v>
+        <v>-0.008954520968285997</v>
       </c>
     </row>
     <row r="389" spans="1:4">
@@ -5806,13 +5806,13 @@
         <v>387</v>
       </c>
       <c r="B389">
-        <v>-0.01268746923642006</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C389">
-        <v>250.8627009727623</v>
+        <v>0.02582491308706736</v>
       </c>
       <c r="D389">
-        <v>0.120613244181535</v>
+        <v>0.01822662356323147</v>
       </c>
     </row>
     <row r="390" spans="1:4">
@@ -5820,13 +5820,13 @@
         <v>388</v>
       </c>
       <c r="B390">
-        <v>0.02582491308706736</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C390">
-        <v>251.5848737243207</v>
+        <v>0.01048829389516293</v>
       </c>
       <c r="D390">
-        <v>0.1217191067600473</v>
+        <v>0.007402394114673935</v>
       </c>
     </row>
     <row r="391" spans="1:4">
@@ -5834,13 +5834,13 @@
         <v>389</v>
       </c>
       <c r="B391">
-        <v>0.01048829389516293</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C391">
-        <v>252.307046475879</v>
+        <v>0.007226661944155666</v>
       </c>
       <c r="D391">
-        <v>0.1364937726339176</v>
+        <v>0.005100410074209216</v>
       </c>
     </row>
     <row r="392" spans="1:4">
@@ -5848,13 +5848,13 @@
         <v>390</v>
       </c>
       <c r="B392">
-        <v>0.007226661944155666</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C392">
-        <v>253.0292192274373</v>
+        <v>-0.001508241748187977</v>
       </c>
       <c r="D392">
-        <v>0.1440005983398855</v>
+        <v>-0.00106448197885084</v>
       </c>
     </row>
     <row r="393" spans="1:4">
@@ -5862,13 +5862,13 @@
         <v>391</v>
       </c>
       <c r="B393">
-        <v>-0.001508241748187977</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C393">
-        <v>253.7513919789957</v>
+        <v>-0.009411890821611202</v>
       </c>
       <c r="D393">
-        <v>0.1348479220871817</v>
+        <v>-0.006642693837744153</v>
       </c>
     </row>
     <row r="394" spans="1:4">
@@ -5876,13 +5876,13 @@
         <v>392</v>
       </c>
       <c r="B394">
-        <v>-0.009411890821611202</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C394">
-        <v>254.473564730554</v>
+        <v>0.003476584863343568</v>
       </c>
       <c r="D394">
-        <v>0.1202858052216039</v>
+        <v>0.002453692811129903</v>
       </c>
     </row>
     <row r="395" spans="1:4">
@@ -5890,13 +5890,13 @@
         <v>393</v>
       </c>
       <c r="B395">
-        <v>0.003476584863343568</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C395">
-        <v>255.1957374821123</v>
+        <v>-0.002702965252184164</v>
       </c>
       <c r="D395">
-        <v>0.1311144474742049</v>
+        <v>-0.001907690066175953</v>
       </c>
     </row>
     <row r="396" spans="1:4">
@@ -5904,13 +5904,13 @@
         <v>394</v>
       </c>
       <c r="B396">
-        <v>-0.002702965252184164</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C396">
-        <v>255.9179102336707</v>
+        <v>0.006335614943684398</v>
       </c>
       <c r="D396">
-        <v>0.1442714358644745</v>
+        <v>0.004471529806539721</v>
       </c>
     </row>
     <row r="397" spans="1:4">
@@ -5918,13 +5918,13 @@
         <v>395</v>
       </c>
       <c r="B397">
-        <v>0.006335614943684398</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C397">
-        <v>256.640082985229</v>
+        <v>-0.01200657020904305</v>
       </c>
       <c r="D397">
-        <v>0.141663808754081</v>
+        <v>-0.008473958256817047</v>
       </c>
     </row>
     <row r="398" spans="1:4">
@@ -5932,13 +5932,13 @@
         <v>396</v>
       </c>
       <c r="B398">
-        <v>-0.01200657020904305</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C398">
-        <v>257.3622557367873</v>
+        <v>0.002815262513715666</v>
       </c>
       <c r="D398">
-        <v>0.1362045200771281</v>
+        <v>0.00198694686391292</v>
       </c>
     </row>
     <row r="399" spans="1:4">
@@ -5946,13 +5946,13 @@
         <v>397</v>
       </c>
       <c r="B399">
-        <v>0.002815262513715666</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C399">
-        <v>258.0844284883456</v>
+        <v>-0.003350086885282266</v>
       </c>
       <c r="D399">
-        <v>0.1390307500902353</v>
+        <v>-0.002364413477648317</v>
       </c>
     </row>
     <row r="400" spans="1:4">
@@ -5960,13 +5960,13 @@
         <v>398</v>
       </c>
       <c r="B400">
-        <v>-0.003350086885282266</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C400">
-        <v>258.806601239904</v>
+        <v>0.004609532895588409</v>
       </c>
       <c r="D400">
-        <v>0.1381507411148941</v>
+        <v>0.003253301205969829</v>
       </c>
     </row>
     <row r="401" spans="1:4">
@@ -5974,13 +5974,13 @@
         <v>399</v>
       </c>
       <c r="B401">
-        <v>0.004609532895588409</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C401">
-        <v>259.5287739914623</v>
+        <v>0.003624155311344524</v>
       </c>
       <c r="D401">
-        <v>0.1438651381866906</v>
+        <v>0.002557844604233818</v>
       </c>
     </row>
     <row r="402" spans="1:4">
@@ -5988,13 +5988,13 @@
         <v>400</v>
       </c>
       <c r="B402">
-        <v>0.003624155311344524</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C402">
-        <v>260.2509467430206</v>
+        <v>-0.02493200551036878</v>
       </c>
       <c r="D402">
-        <v>0.1602642719006809</v>
+        <v>-0.01759643014409495</v>
       </c>
     </row>
     <row r="403" spans="1:4">
@@ -6002,13 +6002,13 @@
         <v>401</v>
       </c>
       <c r="B403">
-        <v>-0.02493200551036878</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C403">
-        <v>260.973119494579</v>
+        <v>-0.009814840687617732</v>
       </c>
       <c r="D403">
-        <v>0.1530438121553116</v>
+        <v>-0.006927086489823727</v>
       </c>
     </row>
     <row r="404" spans="1:4">
@@ -6016,13 +6016,13 @@
         <v>402</v>
       </c>
       <c r="B404">
-        <v>-0.009814840687617732</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C404">
-        <v>261.6952922461373</v>
+        <v>-0.02913589926850513</v>
       </c>
       <c r="D404">
-        <v>0.1556664180548002</v>
+        <v>-0.02056344067268957</v>
       </c>
     </row>
     <row r="405" spans="1:4">
@@ -6030,13 +6030,13 @@
         <v>403</v>
       </c>
       <c r="B405">
-        <v>-0.02913589926850513</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C405">
-        <v>262.4174649976956</v>
+        <v>0.02154121160416267</v>
       </c>
       <c r="D405">
-        <v>0.1495457560664078</v>
+        <v>0.01520328659698781</v>
       </c>
     </row>
     <row r="406" spans="1:4">
@@ -6044,13 +6044,13 @@
         <v>404</v>
       </c>
       <c r="B406">
-        <v>0.02154121160416267</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C406">
-        <v>263.139637749254</v>
+        <v>-0.001460368876723628</v>
       </c>
       <c r="D406">
-        <v>0.1563019892130735</v>
+        <v>-0.00103069441859343</v>
       </c>
     </row>
     <row r="407" spans="1:4">
@@ -6058,13 +6058,13 @@
         <v>405</v>
       </c>
       <c r="B407">
-        <v>-0.001460368876723628</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C407">
-        <v>263.8618105008123</v>
+        <v>0.03337731319566117</v>
       </c>
       <c r="D407">
-        <v>0.1470786281182771</v>
+        <v>0.02355693206472195</v>
       </c>
     </row>
     <row r="408" spans="1:4">
@@ -6072,13 +6072,13 @@
         <v>406</v>
       </c>
       <c r="B408">
-        <v>0.03337731319566117</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C408">
-        <v>264.5839832523706</v>
+        <v>0.01540445188255291</v>
       </c>
       <c r="D408">
-        <v>0.1425693471700646</v>
+        <v>0.01087210418538869</v>
       </c>
     </row>
     <row r="409" spans="1:4">
@@ -6086,13 +6086,13 @@
         <v>407</v>
       </c>
       <c r="B409">
-        <v>0.01540445188255291</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C409">
-        <v>265.3061560039289</v>
+        <v>-0.01664809665310685</v>
       </c>
       <c r="D409">
-        <v>0.1559177630089739</v>
+        <v>-0.01174983976586657</v>
       </c>
     </row>
     <row r="410" spans="1:4">
@@ -6100,13 +6100,13 @@
         <v>408</v>
       </c>
       <c r="B410">
-        <v>-0.01664809665310685</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C410">
-        <v>266.0283287554873</v>
+        <v>0.03972923751476909</v>
       </c>
       <c r="D410">
-        <v>0.1512449843990367</v>
+        <v>0.02803997264945456</v>
       </c>
     </row>
     <row r="411" spans="1:4">
@@ -6114,13 +6114,13 @@
         <v>409</v>
       </c>
       <c r="B411">
-        <v>0.03972923751476909</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C411">
-        <v>266.7505015070456</v>
+        <v>0.001663562515353156</v>
       </c>
       <c r="D411">
-        <v>0.1553410069792727</v>
+        <v>0.001174103767126663</v>
       </c>
     </row>
     <row r="412" spans="1:4">
@@ -6128,13 +6128,13 @@
         <v>410</v>
       </c>
       <c r="B412">
-        <v>0.001663562515353156</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C412">
-        <v>267.4726742586039</v>
+        <v>0.02222570941653856</v>
       </c>
       <c r="D412">
-        <v>0.1559473267566554</v>
+        <v>0.015686389247284</v>
       </c>
     </row>
     <row r="413" spans="1:4">
@@ -6142,13 +6142,13 @@
         <v>411</v>
       </c>
       <c r="B413">
-        <v>0.02222570941653856</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C413">
-        <v>268.1948470101623</v>
+        <v>0.01129260913280739</v>
       </c>
       <c r="D413">
-        <v>0.1512003234666154</v>
+        <v>0.007970061119526627</v>
       </c>
     </row>
     <row r="414" spans="1:4">
@@ -6156,13 +6156,13 @@
         <v>412</v>
       </c>
       <c r="B414">
-        <v>0.01129260913280739</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C414">
-        <v>268.9170197617206</v>
+        <v>-0.01376848211072002</v>
       </c>
       <c r="D414">
-        <v>0.1477224593050495</v>
+        <v>-0.009717474735465923</v>
       </c>
     </row>
     <row r="415" spans="1:4">
@@ -6170,13 +6170,13 @@
         <v>413</v>
       </c>
       <c r="B415">
-        <v>-0.01376848211072002</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C415">
-        <v>269.6391925132789</v>
+        <v>-0.02190596936045797</v>
       </c>
       <c r="D415">
-        <v>0.1388032732210344</v>
+        <v>-0.01546072414550342</v>
       </c>
     </row>
     <row r="416" spans="1:4">
@@ -6184,13 +6184,13 @@
         <v>414</v>
       </c>
       <c r="B416">
-        <v>-0.02190596936045797</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C416">
-        <v>270.3613652648373</v>
+        <v>0.01628965813078764</v>
       </c>
       <c r="D416">
-        <v>0.1512152107774802</v>
+        <v>0.01149686218585122</v>
       </c>
     </row>
     <row r="417" spans="1:4">
@@ -6198,13 +6198,13 @@
         <v>415</v>
       </c>
       <c r="B417">
-        <v>0.01628965813078764</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C417">
-        <v>271.0835380163956</v>
+        <v>0.0197922175198606</v>
       </c>
       <c r="D417">
-        <v>0.1491725368552061</v>
+        <v>0.01396888721367076</v>
       </c>
     </row>
     <row r="418" spans="1:4">
@@ -6212,13 +6212,13 @@
         <v>416</v>
       </c>
       <c r="B418">
-        <v>0.0197922175198606</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C418">
-        <v>271.8057107679539</v>
+        <v>-0.003922685150179461</v>
       </c>
       <c r="D418">
-        <v>0.1569517126760691</v>
+        <v>-0.00276854002754432</v>
       </c>
     </row>
     <row r="419" spans="1:4">
@@ -6226,13 +6226,13 @@
         <v>417</v>
       </c>
       <c r="B419">
-        <v>-0.003922685150179461</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C419">
-        <v>272.5278835195123</v>
+        <v>-0.008212474298288086</v>
       </c>
       <c r="D419">
-        <v>0.1603523812471535</v>
+        <v>-0.005796173526429804</v>
       </c>
     </row>
     <row r="420" spans="1:4">
@@ -6240,13 +6240,13 @@
         <v>418</v>
       </c>
       <c r="B420">
-        <v>-0.008212474298288086</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C420">
-        <v>273.2500562710706</v>
+        <v>0.004251532153205062</v>
       </c>
       <c r="D420">
-        <v>0.1564644796226949</v>
+        <v>0.003000632600860512</v>
       </c>
     </row>
     <row r="421" spans="1:4">
@@ -6254,13 +6254,13 @@
         <v>419</v>
       </c>
       <c r="B421">
-        <v>0.004251532153205062</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C421">
-        <v>273.9722290226289</v>
+        <v>-0.001323808195518694</v>
       </c>
       <c r="D421">
-        <v>0.1527022606971462</v>
+        <v>-0.0009343130630601462</v>
       </c>
     </row>
     <row r="422" spans="1:4">
@@ -6268,13 +6268,13 @@
         <v>420</v>
       </c>
       <c r="B422">
-        <v>-0.001323808195518694</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C422">
-        <v>274.6944017741873</v>
+        <v>0.008596236956741166</v>
       </c>
       <c r="D422">
-        <v>0.1532219432755896</v>
+        <v>0.00606702429327138</v>
       </c>
     </row>
     <row r="423" spans="1:4">
@@ -6282,13 +6282,13 @@
         <v>421</v>
       </c>
       <c r="B423">
-        <v>0.008596236956741166</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C423">
-        <v>275.4165745257456</v>
+        <v>0.02466941612904527</v>
       </c>
       <c r="D423">
-        <v>0.1570255047223654</v>
+        <v>0.01741110066054745</v>
       </c>
     </row>
     <row r="424" spans="1:4">
@@ -6296,13 +6296,13 @@
         <v>422</v>
       </c>
       <c r="B424">
-        <v>0.02466941612904527</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C424">
-        <v>276.1387472773039</v>
+        <v>-0.01086182533834545</v>
       </c>
       <c r="D424">
-        <v>0.154630465768323</v>
+        <v>-0.007666023927520351</v>
       </c>
     </row>
     <row r="425" spans="1:4">
@@ -6310,13 +6310,13 @@
         <v>423</v>
       </c>
       <c r="B425">
-        <v>-0.01086182533834545</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C425">
-        <v>276.8609200288623</v>
+        <v>0.0039452179246382</v>
       </c>
       <c r="D425">
-        <v>0.1532219432755896</v>
+        <v>0.002784443136163117</v>
       </c>
     </row>
     <row r="426" spans="1:4">
@@ -6324,13 +6324,13 @@
         <v>424</v>
       </c>
       <c r="B426">
-        <v>0.0039452179246382</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C426">
-        <v>277.5830927804206</v>
+        <v>-0.009207386207727986</v>
       </c>
       <c r="D426">
-        <v>0.1620681834077719</v>
+        <v>-0.006498359233340005</v>
       </c>
     </row>
     <row r="427" spans="1:4">
@@ -6338,13 +6338,13 @@
         <v>425</v>
       </c>
       <c r="B427">
-        <v>-0.009207386207727986</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C427">
-        <v>278.3052655319789</v>
+        <v>0.01016348362461095</v>
       </c>
       <c r="D427">
-        <v>0.1647430247712276</v>
+        <v>0.007173150573336055</v>
       </c>
     </row>
     <row r="428" spans="1:4">
@@ -6352,13 +6352,13 @@
         <v>426</v>
       </c>
       <c r="B428">
-        <v>0.01016348362461095</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C428">
-        <v>279.0274382835373</v>
+        <v>-0.01387481417764569</v>
       </c>
       <c r="D428">
-        <v>0.1578956328181663</v>
+        <v>-0.009792521437463349</v>
       </c>
     </row>
     <row r="429" spans="1:4">
@@ -6366,13 +6366,13 @@
         <v>427</v>
       </c>
       <c r="B429">
-        <v>-0.01387481417764569</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C429">
-        <v>279.7496110350956</v>
+        <v>-0.006783366127402601</v>
       </c>
       <c r="D429">
-        <v>0.1730205945760416</v>
+        <v>-0.004787542187611776</v>
       </c>
     </row>
     <row r="430" spans="1:4">
@@ -6380,13 +6380,13 @@
         <v>428</v>
       </c>
       <c r="B430">
-        <v>-0.006783366127402601</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C430">
-        <v>280.4717837866539</v>
+        <v>0.02008018415708523</v>
       </c>
       <c r="D430">
-        <v>0.1996372476198203</v>
+        <v>0.01417212737474187</v>
       </c>
     </row>
     <row r="431" spans="1:4">
@@ -6394,13 +6394,13 @@
         <v>429</v>
       </c>
       <c r="B431">
-        <v>0.02008018415708523</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C431">
-        <v>281.1939565382123</v>
+        <v>-0.007029317646766842</v>
       </c>
       <c r="D431">
-        <v>0.2048350399537349</v>
+        <v>-0.004961129054802503</v>
       </c>
     </row>
     <row r="432" spans="1:4">
@@ -6408,13 +6408,13 @@
         <v>430</v>
       </c>
       <c r="B432">
-        <v>-0.007029317646766842</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C432">
-        <v>281.9161292897706</v>
+        <v>0.006161696542519302</v>
       </c>
       <c r="D432">
-        <v>0.201447988250522</v>
+        <v>0.004348782240340061</v>
       </c>
     </row>
     <row r="433" spans="1:4">
@@ -6422,13 +6422,13 @@
         <v>431</v>
       </c>
       <c r="B433">
-        <v>0.006161696542519302</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C433">
-        <v>282.6383020413289</v>
+        <v>0.0009120942091449535</v>
       </c>
       <c r="D433">
-        <v>0.2014755949553321</v>
+        <v>0.000643734898477299</v>
       </c>
     </row>
     <row r="434" spans="1:4">
@@ -6436,13 +6436,13 @@
         <v>432</v>
       </c>
       <c r="B434">
-        <v>0.0009120942091449535</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C434">
-        <v>283.3604747928873</v>
+        <v>-0.007140974735027505</v>
       </c>
       <c r="D434">
-        <v>0.2103603419347235</v>
+        <v>-0.005039934033120621</v>
       </c>
     </row>
     <row r="435" spans="1:4">
@@ -6450,13 +6450,13 @@
         <v>433</v>
       </c>
       <c r="B435">
-        <v>-0.007140974735027505</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C435">
-        <v>284.0826475444456</v>
+        <v>-0.005231793321422096</v>
       </c>
       <c r="D435">
-        <v>0.2032813417798425</v>
+        <v>-0.003692478155054953</v>
       </c>
     </row>
     <row r="436" spans="1:4">
@@ -6464,13 +6464,13 @@
         <v>434</v>
       </c>
       <c r="B436">
-        <v>-0.005231793321422096</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C436">
-        <v>284.8048202960039</v>
+        <v>-0.01341724001257738</v>
       </c>
       <c r="D436">
-        <v>0.2007436296313111</v>
+        <v>-0.009469576224411053</v>
       </c>
     </row>
     <row r="437" spans="1:4">
@@ -6478,13 +6478,13 @@
         <v>435</v>
       </c>
       <c r="B437">
-        <v>-0.01341724001257738</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C437">
-        <v>285.5269930475623</v>
+        <v>0.01867142849664472</v>
       </c>
       <c r="D437">
-        <v>0.1909577063290895</v>
+        <v>0.01317786036486452</v>
       </c>
     </row>
     <row r="438" spans="1:4">
@@ -6492,13 +6492,13 @@
         <v>436</v>
       </c>
       <c r="B438">
-        <v>0.01867142849664472</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C438">
-        <v>286.2491657991206</v>
+        <v>-0.003072819203952193</v>
       </c>
       <c r="D438">
-        <v>0.1935888534311115</v>
+        <v>-0.0021687243910359</v>
       </c>
     </row>
     <row r="439" spans="1:4">
@@ -6506,13 +6506,13 @@
         <v>437</v>
       </c>
       <c r="B439">
-        <v>-0.003072819203952193</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C439">
-        <v>286.9713385506789</v>
+        <v>0.01170230872025613</v>
       </c>
       <c r="D439">
-        <v>0.1959452307283136</v>
+        <v>0.008259217568156807</v>
       </c>
     </row>
     <row r="440" spans="1:4">
@@ -6520,13 +6520,13 @@
         <v>438</v>
       </c>
       <c r="B440">
-        <v>0.01170230872025613</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C440">
-        <v>287.6935113022373</v>
+        <v>0.005115667056576179</v>
       </c>
       <c r="D440">
-        <v>0.185875957671551</v>
+        <v>0.003610518935753239</v>
       </c>
     </row>
     <row r="441" spans="1:4">
@@ -6534,13 +6534,13 @@
         <v>439</v>
       </c>
       <c r="B441">
-        <v>0.005115667056576179</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C441">
-        <v>288.4156840537956</v>
+        <v>-0.005848617659647282</v>
       </c>
       <c r="D441">
-        <v>0.1830437711733681</v>
+        <v>-0.004127818439824388</v>
       </c>
     </row>
     <row r="442" spans="1:4">
@@ -6548,13 +6548,13 @@
         <v>440</v>
       </c>
       <c r="B442">
-        <v>-0.005848617659647282</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C442">
-        <v>289.1378568053539</v>
+        <v>-0.005659551648374617</v>
       </c>
       <c r="D442">
-        <v>0.1794151444597746</v>
+        <v>-0.003994380042395889</v>
       </c>
     </row>
     <row r="443" spans="1:4">
@@ -6562,13 +6562,13 @@
         <v>441</v>
       </c>
       <c r="B443">
-        <v>-0.005659551648374617</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C443">
-        <v>289.8600295569123</v>
+        <v>0.0007817648179608838</v>
       </c>
       <c r="D443">
-        <v>0.1700751042602074</v>
+        <v>0.0005517514426442273</v>
       </c>
     </row>
     <row r="444" spans="1:4">
@@ -6576,13 +6576,13 @@
         <v>442</v>
       </c>
       <c r="B444">
-        <v>0.0007817648179608838</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C444">
-        <v>290.5822023084706</v>
+        <v>0.005721743705453086</v>
       </c>
       <c r="D444">
-        <v>0.14985909835285</v>
+        <v>0.004038273751124765</v>
       </c>
     </row>
     <row r="445" spans="1:4">
@@ -6590,13 +6590,13 @@
         <v>443</v>
       </c>
       <c r="B445">
-        <v>0.005721743705453086</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C445">
-        <v>291.3043750600289</v>
+        <v>-0.003602886203198707</v>
       </c>
       <c r="D445">
-        <v>0.1618191536442312</v>
+        <v>-0.002542833361934862</v>
       </c>
     </row>
     <row r="446" spans="1:4">
@@ -6604,13 +6604,13 @@
         <v>444</v>
       </c>
       <c r="B446">
-        <v>-0.003602886203198707</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C446">
-        <v>292.0265478115872</v>
+        <v>-0.002118857502254379</v>
       </c>
       <c r="D446">
-        <v>0.1487094538351699</v>
+        <v>-0.001495440389189903</v>
       </c>
     </row>
     <row r="447" spans="1:4">
@@ -6618,13 +6618,13 @@
         <v>445</v>
       </c>
       <c r="B447">
-        <v>-0.002118857502254379</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C447">
-        <v>292.7487205631456</v>
+        <v>0.0133075065307926</v>
       </c>
       <c r="D447">
-        <v>0.1563758534139986</v>
+        <v>0.009392128882844762</v>
       </c>
     </row>
     <row r="448" spans="1:4">
@@ -6632,13 +6632,13 @@
         <v>446</v>
       </c>
       <c r="B448">
-        <v>0.0133075065307926</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C448">
-        <v>293.4708933147039</v>
+        <v>0.004023796367851773</v>
       </c>
       <c r="D448">
-        <v>0.1650201247921154</v>
+        <v>0.002839901975455621</v>
       </c>
     </row>
     <row r="449" spans="1:4">
@@ -6646,13 +6646,13 @@
         <v>447</v>
       </c>
       <c r="B449">
-        <v>0.004023796367851773</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C449">
-        <v>294.1930660662622</v>
+        <v>-0.01030061492483814</v>
       </c>
       <c r="D449">
-        <v>0.1663165840818733</v>
+        <v>-0.00726993465851577</v>
       </c>
     </row>
     <row r="450" spans="1:4">
@@ -6660,13 +6660,13 @@
         <v>448</v>
       </c>
       <c r="B450">
-        <v>-0.01030061492483814</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C450">
-        <v>294.9152388178206</v>
+        <v>0.02275266377166041</v>
       </c>
       <c r="D450">
-        <v>0.1627269298788528</v>
+        <v>0.01605830138628829</v>
       </c>
     </row>
     <row r="451" spans="1:4">
@@ -6674,13 +6674,13 @@
         <v>449</v>
       </c>
       <c r="B451">
-        <v>0.02275266377166041</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C451">
-        <v>295.6374115693789</v>
+        <v>0.04003975462064968</v>
       </c>
       <c r="D451">
-        <v>0.1739707598226602</v>
+        <v>0.0282591284072977</v>
       </c>
     </row>
     <row r="452" spans="1:4">
@@ -6688,13 +6688,13 @@
         <v>450</v>
       </c>
       <c r="B452">
-        <v>0.04003975462064968</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C452">
-        <v>296.3595843209372</v>
+        <v>0.00781910217173909</v>
       </c>
       <c r="D452">
-        <v>0.1793437965458297</v>
+        <v>0.005518540620301383</v>
       </c>
     </row>
     <row r="453" spans="1:4">
@@ -6702,13 +6702,13 @@
         <v>451</v>
       </c>
       <c r="B453">
-        <v>0.00781910217173909</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C453">
-        <v>297.0817570724956</v>
+        <v>-0.005095183036764261</v>
       </c>
       <c r="D453">
-        <v>0.174718419496485</v>
+        <v>-0.003596061790557247</v>
       </c>
     </row>
     <row r="454" spans="1:4">
@@ -6716,13 +6716,13 @@
         <v>452</v>
       </c>
       <c r="B454">
-        <v>-0.005095183036764261</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C454">
-        <v>297.8039298240539</v>
+        <v>4.1529101523885e-05</v>
       </c>
       <c r="D454">
-        <v>0.173409462706991</v>
+        <v>2.931027484364055e-05</v>
       </c>
     </row>
     <row r="455" spans="1:4">
@@ -6730,13 +6730,13 @@
         <v>453</v>
       </c>
       <c r="B455">
-        <v>4.1529101523885e-05</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C455">
-        <v>298.5261025756122</v>
+        <v>0.01336543284898628</v>
       </c>
       <c r="D455">
-        <v>0.1743590726860808</v>
+        <v>0.009433011932191747</v>
       </c>
     </row>
     <row r="456" spans="1:4">
@@ -6744,13 +6744,13 @@
         <v>454</v>
       </c>
       <c r="B456">
-        <v>0.01336543284898628</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C456">
-        <v>299.2482753271706</v>
+        <v>-0.01064902595734996</v>
       </c>
       <c r="D456">
-        <v>0.181096736166378</v>
+        <v>-0.007515835069233895</v>
       </c>
     </row>
     <row r="457" spans="1:4">
@@ -6758,13 +6758,13 @@
         <v>455</v>
       </c>
       <c r="B457">
-        <v>-0.01064902595734996</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C457">
-        <v>299.9704480787289</v>
+        <v>-0.003817511223440206</v>
       </c>
       <c r="D457">
-        <v>0.1798573306874101</v>
+        <v>-0.002694310713978759</v>
       </c>
     </row>
     <row r="458" spans="1:4">
@@ -6772,13 +6772,13 @@
         <v>456</v>
       </c>
       <c r="B458">
-        <v>-0.003817511223440206</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C458">
-        <v>300.6926208302872</v>
+        <v>-0.01472108334255928</v>
       </c>
       <c r="D458">
-        <v>0.178972663900204</v>
+        <v>-0.010389798549299</v>
       </c>
     </row>
     <row r="459" spans="1:4">
@@ -6786,13 +6786,13 @@
         <v>457</v>
       </c>
       <c r="B459">
-        <v>-0.01472108334255928</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C459">
-        <v>301.4147935818456</v>
+        <v>0.00395806655940234</v>
       </c>
       <c r="D459">
-        <v>0.1748190018032177</v>
+        <v>0.002793511404015864</v>
       </c>
     </row>
     <row r="460" spans="1:4">
@@ -6800,13 +6800,13 @@
         <v>458</v>
       </c>
       <c r="B460">
-        <v>0.00395806655940234</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C460">
-        <v>302.1369663334039</v>
+        <v>0.003544727002995351</v>
       </c>
       <c r="D460">
-        <v>0.1869772480252472</v>
+        <v>0.002501785949876928</v>
       </c>
     </row>
     <row r="461" spans="1:4">
@@ -6814,13 +6814,13 @@
         <v>459</v>
       </c>
       <c r="B461">
-        <v>0.003544727002995351</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C461">
-        <v>302.8591390849622</v>
+        <v>-0.01514732982159561</v>
       </c>
       <c r="D461">
-        <v>0.189483637467896</v>
+        <v>-0.01069063340951151</v>
       </c>
     </row>
     <row r="462" spans="1:4">
@@ -6828,13 +6828,13 @@
         <v>460</v>
       </c>
       <c r="B462">
-        <v>-0.01514732982159561</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C462">
-        <v>303.5813118365206</v>
+        <v>-0.004260492566087848</v>
       </c>
       <c r="D462">
-        <v>0.1916304792447876</v>
+        <v>-0.003006956652060028</v>
       </c>
     </row>
     <row r="463" spans="1:4">
@@ -6842,13 +6842,13 @@
         <v>461</v>
       </c>
       <c r="B463">
-        <v>-0.004260492566087848</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C463">
-        <v>304.3034845880789</v>
+        <v>-0.005458587260511294</v>
       </c>
       <c r="D463">
-        <v>0.1976827552372829</v>
+        <v>-0.003852544047252334</v>
       </c>
     </row>
     <row r="464" spans="1:4">
@@ -6856,13 +6856,13 @@
         <v>462</v>
       </c>
       <c r="B464">
-        <v>-0.005458587260511294</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C464">
-        <v>305.0256573396372</v>
+        <v>-0.01405033597284255</v>
       </c>
       <c r="D464">
-        <v>0.1815804742192054</v>
+        <v>-0.009916400641912558</v>
       </c>
     </row>
     <row r="465" spans="1:4">
@@ -6870,13 +6870,13 @@
         <v>463</v>
       </c>
       <c r="B465">
-        <v>-0.01405033597284255</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C465">
-        <v>305.7478300911956</v>
+        <v>-0.03041118335234838</v>
       </c>
       <c r="D465">
-        <v>0.1725738356440744</v>
+        <v>-0.02146350654528419</v>
       </c>
     </row>
     <row r="466" spans="1:4">
@@ -6884,13 +6884,13 @@
         <v>464</v>
       </c>
       <c r="B466">
-        <v>-0.03041118335234838</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C466">
-        <v>306.4700028427539</v>
+        <v>0.01799165651401236</v>
       </c>
       <c r="D466">
-        <v>0.1892446709493749</v>
+        <v>0.0126980930953872</v>
       </c>
     </row>
     <row r="467" spans="1:4">
@@ -6898,13 +6898,13 @@
         <v>465</v>
       </c>
       <c r="B467">
-        <v>0.01799165651401236</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C467">
-        <v>307.1921755943122</v>
+        <v>-0.0197210807324959</v>
       </c>
       <c r="D467">
-        <v>0.1930718437465219</v>
+        <v>-0.0139186805221546</v>
       </c>
     </row>
     <row r="468" spans="1:4">
@@ -6912,13 +6912,13 @@
         <v>466</v>
       </c>
       <c r="B468">
-        <v>-0.0197210807324959</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C468">
-        <v>307.9143483458706</v>
+        <v>0.01153265804890147</v>
       </c>
       <c r="D468">
-        <v>0.1860878860210932</v>
+        <v>0.008139482066488096</v>
       </c>
     </row>
     <row r="469" spans="1:4">
@@ -6926,13 +6926,13 @@
         <v>467</v>
       </c>
       <c r="B469">
-        <v>0.01153265804890147</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C469">
-        <v>308.6365210974289</v>
+        <v>0.0130036824797175</v>
       </c>
       <c r="D469">
-        <v>0.1722421752089312</v>
+        <v>0.009177696927556789</v>
       </c>
     </row>
     <row r="470" spans="1:4">
@@ -6940,13 +6940,13 @@
         <v>468</v>
       </c>
       <c r="B470">
-        <v>0.0130036824797175</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C470">
-        <v>309.3586938489872</v>
+        <v>0.00195027946422055</v>
       </c>
       <c r="D470">
-        <v>0.1877104292927691</v>
+        <v>0.001376461927194249</v>
       </c>
     </row>
     <row r="471" spans="1:4">
@@ -6954,13 +6954,13 @@
         <v>469</v>
       </c>
       <c r="B471">
-        <v>0.00195027946422055</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C471">
-        <v>310.0808666005456</v>
+        <v>-0.005399960439260276</v>
       </c>
       <c r="D471">
-        <v>0.1960924307177743</v>
+        <v>-0.003811166599125072</v>
       </c>
     </row>
     <row r="472" spans="1:4">
@@ -6968,13 +6968,13 @@
         <v>470</v>
       </c>
       <c r="B472">
-        <v>-0.005399960439260276</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C472">
-        <v>310.8030393521039</v>
+        <v>0.01691423002005088</v>
       </c>
       <c r="D472">
-        <v>0.1997824762699327</v>
+        <v>0.01193767051211344</v>
       </c>
     </row>
     <row r="473" spans="1:4">
@@ -6982,13 +6982,13 @@
         <v>471</v>
       </c>
       <c r="B473">
-        <v>0.01691423002005088</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C473">
-        <v>311.5252121036622</v>
+        <v>0.008082724436073718</v>
       </c>
       <c r="D473">
-        <v>0.2105859530138624</v>
+        <v>0.005704599088677031</v>
       </c>
     </row>
     <row r="474" spans="1:4">
@@ -6996,13 +6996,13 @@
         <v>472</v>
       </c>
       <c r="B474">
-        <v>0.008082724436073718</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C474">
-        <v>312.2473848552206</v>
+        <v>-0.00695801090314152</v>
       </c>
       <c r="D474">
-        <v>0.214234106558406</v>
+        <v>-0.004910802412106871</v>
       </c>
     </row>
     <row r="475" spans="1:4">
@@ -7010,13 +7010,13 @@
         <v>473</v>
       </c>
       <c r="B475">
-        <v>-0.00695801090314152</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C475">
-        <v>312.9695576067789</v>
+        <v>-0.001969079604943857</v>
       </c>
       <c r="D475">
-        <v>0.2154637221052517</v>
+        <v>-0.001389730629657805</v>
       </c>
     </row>
     <row r="476" spans="1:4">
@@ -7024,13 +7024,13 @@
         <v>474</v>
       </c>
       <c r="B476">
-        <v>-0.001969079604943857</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C476">
-        <v>313.6917303583372</v>
+        <v>0.001428509831252534</v>
       </c>
       <c r="D476">
-        <v>0.2165158710348189</v>
+        <v>0.001008209044608713</v>
       </c>
     </row>
     <row r="477" spans="1:4">
@@ -7038,13 +7038,13 @@
         <v>475</v>
       </c>
       <c r="B477">
-        <v>0.001428509831252534</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C477">
-        <v>314.4139031098956</v>
+        <v>0.01013554904983316</v>
       </c>
       <c r="D477">
-        <v>0.2106811405346327</v>
+        <v>0.007153434999573731</v>
       </c>
     </row>
     <row r="478" spans="1:4">
@@ -7052,13 +7052,13 @@
         <v>476</v>
       </c>
       <c r="B478">
-        <v>0.01013554904983316</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C478">
-        <v>315.1360758614539</v>
+        <v>-0.001864452723328469</v>
       </c>
       <c r="D478">
-        <v>0.2166641171177271</v>
+        <v>-0.001315887407828979</v>
       </c>
     </row>
     <row r="479" spans="1:4">
@@ -7066,13 +7066,13 @@
         <v>477</v>
       </c>
       <c r="B479">
-        <v>-0.001864452723328469</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C479">
-        <v>315.8582486130122</v>
+        <v>-0.001330814998508956</v>
       </c>
       <c r="D479">
-        <v>0.2130835064745333</v>
+        <v>-0.0009392583017935603</v>
       </c>
     </row>
     <row r="480" spans="1:4">
@@ -7080,13 +7080,13 @@
         <v>478</v>
       </c>
       <c r="B480">
-        <v>-0.001330814998508956</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C480">
-        <v>316.5804213645706</v>
+        <v>-0.006248404368005112</v>
       </c>
       <c r="D480">
-        <v>0.2099056454771765</v>
+        <v>-0.004409978608737818</v>
       </c>
     </row>
     <row r="481" spans="1:4">
@@ -7094,13 +7094,13 @@
         <v>479</v>
       </c>
       <c r="B481">
-        <v>-0.006248404368005112</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C481">
-        <v>317.3025941161289</v>
+        <v>0.01828979753941251</v>
       </c>
       <c r="D481">
-        <v>0.2101778520443388</v>
+        <v>0.01290851410321029</v>
       </c>
     </row>
     <row r="482" spans="1:4">
@@ -7108,13 +7108,13 @@
         <v>480</v>
       </c>
       <c r="B482">
-        <v>0.01828979753941251</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C482">
-        <v>318.0247668676872</v>
+        <v>0.003770392096345887</v>
       </c>
       <c r="D482">
-        <v>0.1960678186938282</v>
+        <v>0.002661055128982955</v>
       </c>
     </row>
     <row r="483" spans="1:4">
@@ -7122,13 +7122,13 @@
         <v>481</v>
       </c>
       <c r="B483">
-        <v>0.003770392096345887</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C483">
-        <v>318.7469396192456</v>
+        <v>0.003229520173506195</v>
       </c>
       <c r="D483">
-        <v>0.2006664967114021</v>
+        <v>0.002279320294085985</v>
       </c>
     </row>
     <row r="484" spans="1:4">
@@ -7136,13 +7136,13 @@
         <v>482</v>
       </c>
       <c r="B484">
-        <v>0.003229520173506195</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C484">
-        <v>319.4691123708039</v>
+        <v>0.009104512323069969</v>
       </c>
       <c r="D484">
-        <v>0.209973707569443</v>
+        <v>0.006425753236029294</v>
       </c>
     </row>
     <row r="485" spans="1:4">
@@ -7150,13 +7150,13 @@
         <v>483</v>
       </c>
       <c r="B485">
-        <v>0.009104512323069969</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C485">
-        <v>320.1912851223622</v>
+        <v>-0.02422285701121485</v>
       </c>
       <c r="D485">
-        <v>0.2263494169216527</v>
+        <v>-0.01709592961187895</v>
       </c>
     </row>
     <row r="486" spans="1:4">
@@ -7164,13 +7164,13 @@
         <v>484</v>
       </c>
       <c r="B486">
-        <v>-0.02422285701121485</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C486">
-        <v>320.9134578739205</v>
+        <v>-0.01354879585769009</v>
       </c>
       <c r="D486">
-        <v>0.2241278647048957</v>
+        <v>-0.009562425282927842</v>
       </c>
     </row>
     <row r="487" spans="1:4">
@@ -7178,13 +7178,13 @@
         <v>485</v>
       </c>
       <c r="B487">
-        <v>-0.01354879585769009</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C487">
-        <v>321.6356306254789</v>
+        <v>0.02507814013458454</v>
       </c>
       <c r="D487">
-        <v>0.2218453823485726</v>
+        <v>0.01769956856613552</v>
       </c>
     </row>
     <row r="488" spans="1:4">
@@ -7192,13 +7192,13 @@
         <v>486</v>
       </c>
       <c r="B488">
-        <v>0.02507814013458454</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C488">
-        <v>322.3578033770372</v>
+        <v>0.005757262546742581</v>
       </c>
       <c r="D488">
-        <v>0.218548003133385</v>
+        <v>0.004063342123955416</v>
       </c>
     </row>
     <row r="489" spans="1:4">
@@ -7206,13 +7206,13 @@
         <v>487</v>
       </c>
       <c r="B489">
-        <v>0.005757262546742581</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C489">
-        <v>323.0799761285955</v>
+        <v>-0.01050605247576453</v>
       </c>
       <c r="D489">
-        <v>0.2246872776139816</v>
+        <v>-0.007414927708206329</v>
       </c>
     </row>
     <row r="490" spans="1:4">
@@ -7220,13 +7220,13 @@
         <v>488</v>
       </c>
       <c r="B490">
-        <v>-0.01050605247576453</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C490">
-        <v>323.8021488801539</v>
+        <v>-0.0208282710285026</v>
       </c>
       <c r="D490">
-        <v>0.2327594569359287</v>
+        <v>-0.01470010970529028</v>
       </c>
     </row>
     <row r="491" spans="1:4">
@@ -7234,13 +7234,13 @@
         <v>489</v>
       </c>
       <c r="B491">
-        <v>-0.0208282710285026</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C491">
-        <v>324.5243216317122</v>
+        <v>0.02326908258931137</v>
       </c>
       <c r="D491">
-        <v>0.2343097089578858</v>
+        <v>0.01642277778775997</v>
       </c>
     </row>
     <row r="492" spans="1:4">
@@ -7248,13 +7248,13 @@
         <v>490</v>
       </c>
       <c r="B492">
-        <v>0.02326908258931137</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="C492">
-        <v>325.208532158028</v>
+        <v>0.01282730452043523</v>
       </c>
       <c r="D492">
-        <v>0.2225803694202175</v>
+        <v>0.00895615248142431</v>
       </c>
     </row>
     <row r="493" spans="1:4">
@@ -7262,13 +7262,13 @@
         <v>491</v>
       </c>
       <c r="B493">
-        <v>0.01282730452043523</v>
+        <v>0.2746478873239437</v>
       </c>
       <c r="C493">
-        <v>325.483180045352</v>
+        <v>0.006508429666450155</v>
       </c>
       <c r="D493">
-        <v>0.2236213232490677</v>
+        <v>0.003979320525409989</v>
       </c>
     </row>
     <row r="494" spans="1:4">
@@ -7276,13 +7276,13 @@
         <v>492</v>
       </c>
       <c r="B494">
-        <v>0.006508429666450155</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C494">
-        <v>326.2053527969103</v>
+        <v>0.01625180135028081</v>
       </c>
       <c r="D494">
-        <v>0.2291192637406931</v>
+        <v>0.01147014374984768</v>
       </c>
     </row>
     <row r="495" spans="1:4">
@@ -7290,13 +7290,13 @@
         <v>493</v>
       </c>
       <c r="B495">
-        <v>0.01625180135028081</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C495">
-        <v>326.9275255484686</v>
+        <v>0.00548796170960042</v>
       </c>
       <c r="D495">
-        <v>0.2312055811762296</v>
+        <v>0.003873275850845234</v>
       </c>
     </row>
     <row r="496" spans="1:4">
@@ -7304,13 +7304,13 @@
         <v>494</v>
       </c>
       <c r="B496">
-        <v>0.00548796170960042</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C496">
-        <v>327.649698300027</v>
+        <v>0.001849725609469388</v>
       </c>
       <c r="D496">
-        <v>0.229951934880728</v>
+        <v>0.00130549335308125</v>
       </c>
     </row>
     <row r="497" spans="1:4">
@@ -7318,13 +7318,13 @@
         <v>495</v>
       </c>
       <c r="B497">
-        <v>0.001849725609469388</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C497">
-        <v>328.3718710515853</v>
+        <v>0.001582760420514084</v>
       </c>
       <c r="D497">
-        <v>0.2342309697634343</v>
+        <v>0.001117075526187884</v>
       </c>
     </row>
     <row r="498" spans="1:4">
@@ -7332,13 +7332,13 @@
         <v>496</v>
       </c>
       <c r="B498">
-        <v>0.001582760420514084</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C498">
-        <v>329.0940438031436</v>
+        <v>-0.008777255995365607</v>
       </c>
       <c r="D498">
-        <v>0.24255177259399</v>
+        <v>-0.006194783324392303</v>
       </c>
     </row>
     <row r="499" spans="1:4">
@@ -7346,13 +7346,13 @@
         <v>497</v>
       </c>
       <c r="B499">
-        <v>-0.008777255995365607</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C499">
-        <v>329.816216554702</v>
+        <v>0.009000264379378287</v>
       </c>
       <c r="D499">
-        <v>0.250334316353475</v>
+        <v>0.006352177459781637</v>
       </c>
     </row>
     <row r="500" spans="1:4">
@@ -7360,13 +7360,13 @@
         <v>498</v>
       </c>
       <c r="B500">
-        <v>0.009000264379378287</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C500">
-        <v>330.5383893062603</v>
+        <v>-0.005386356102315304</v>
       </c>
       <c r="D500">
-        <v>0.2474072299742639</v>
+        <v>-0.003801564974233349</v>
       </c>
     </row>
     <row r="501" spans="1:4">
@@ -7374,13 +7374,13 @@
         <v>499</v>
       </c>
       <c r="B501">
-        <v>-0.005386356102315304</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C501">
-        <v>331.2605620578186</v>
+        <v>-0.004780494915848976</v>
       </c>
       <c r="D501">
-        <v>0.2411505383718069</v>
+        <v>-0.003373962227224509</v>
       </c>
     </row>
     <row r="502" spans="1:4">
@@ -7388,13 +7388,13 @@
         <v>500</v>
       </c>
       <c r="B502">
-        <v>-0.004780494915848976</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C502">
-        <v>331.982734809377</v>
+        <v>0.0004094836468500063</v>
       </c>
       <c r="D502">
-        <v>0.2534398505950956</v>
+        <v>0.0002890040427734048</v>
       </c>
     </row>
     <row r="503" spans="1:4">
@@ -7402,13 +7402,13 @@
         <v>501</v>
       </c>
       <c r="B503">
-        <v>0.0004094836468500063</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C503">
-        <v>332.7049075609353</v>
+        <v>-0.02122589463500102</v>
       </c>
       <c r="D503">
-        <v>0.2417217681649574</v>
+        <v>-0.01498074320717534</v>
       </c>
     </row>
     <row r="504" spans="1:4">
@@ -7416,10 +7416,13 @@
         <v>502</v>
       </c>
       <c r="B504">
-        <v>-0.02122589463500102</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C504">
-        <v>333.4270803124936</v>
+        <v>0.006917847225200724</v>
+      </c>
+      <c r="D504">
+        <v>0.00488245582149982</v>
       </c>
     </row>
     <row r="505" spans="1:4">
@@ -7427,10 +7430,13 @@
         <v>503</v>
       </c>
       <c r="B505">
-        <v>0.006917847225200724</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C505">
-        <v>334.1492530640519</v>
+        <v>0.0140009503954408</v>
+      </c>
+      <c r="D505">
+        <v>0.009881545448955285</v>
       </c>
     </row>
     <row r="506" spans="1:4">
@@ -7438,10 +7444,13 @@
         <v>504</v>
       </c>
       <c r="B506">
-        <v>0.0140009503954408</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C506">
-        <v>334.8714258156103</v>
+        <v>0.02463417857696459</v>
+      </c>
+      <c r="D506">
+        <v>0.01738623081510406</v>
       </c>
     </row>
     <row r="507" spans="1:4">
@@ -7449,10 +7458,13 @@
         <v>505</v>
       </c>
       <c r="B507">
-        <v>0.02463417857696459</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C507">
-        <v>335.5935985671686</v>
+        <v>-0.003341907996080806</v>
+      </c>
+      <c r="D507">
+        <v>-0.002358641007702811</v>
       </c>
     </row>
     <row r="508" spans="1:4">
@@ -7460,10 +7472,13 @@
         <v>506</v>
       </c>
       <c r="B508">
-        <v>-0.003341907996080806</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C508">
-        <v>336.3157713187269</v>
+        <v>-0.003433565945456074</v>
+      </c>
+      <c r="D508">
+        <v>-0.002423331058515697</v>
       </c>
     </row>
     <row r="509" spans="1:4">
@@ -7471,10 +7486,13 @@
         <v>507</v>
       </c>
       <c r="B509">
-        <v>-0.003433565945456074</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C509">
-        <v>337.0379440702853</v>
+        <v>-0.004960287623323012</v>
+      </c>
+      <c r="D509">
+        <v>-0.003500855742315738</v>
       </c>
     </row>
     <row r="510" spans="1:4">
@@ -7482,10 +7500,13 @@
         <v>508</v>
       </c>
       <c r="B510">
-        <v>-0.004960287623323012</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C510">
-        <v>337.7601168218436</v>
+        <v>0.009235385205930591</v>
+      </c>
+      <c r="D510">
+        <v>0.006518120275658557</v>
       </c>
     </row>
     <row r="511" spans="1:4">
@@ -7493,10 +7514,13 @@
         <v>509</v>
       </c>
       <c r="B511">
-        <v>0.009235385205930591</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C511">
-        <v>338.4822895734019</v>
+        <v>0.01214307744753018</v>
+      </c>
+      <c r="D511">
+        <v>0.008570301893721951</v>
       </c>
     </row>
     <row r="512" spans="1:4">
@@ -7504,161 +7528,181 @@
         <v>510</v>
       </c>
       <c r="B512">
-        <v>0.01214307744753018</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C512">
-        <v>339.2044623249603</v>
-      </c>
-    </row>
-    <row r="513" spans="1:3">
+        <v>0.002332062955369807</v>
+      </c>
+      <c r="D512">
+        <v>0.001645915843742706</v>
+      </c>
+    </row>
+    <row r="513" spans="1:4">
       <c r="A513" s="1">
         <v>511</v>
       </c>
       <c r="B513">
-        <v>0.002332062955369807</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C513">
-        <v>339.9266350765186</v>
-      </c>
-    </row>
-    <row r="514" spans="1:3">
+        <v>-0.01764458800203261</v>
+      </c>
+      <c r="D513">
+        <v>-0.01245314020446446</v>
+      </c>
+    </row>
+    <row r="514" spans="1:4">
       <c r="A514" s="1">
         <v>512</v>
       </c>
       <c r="B514">
-        <v>-0.01764458800203261</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C514">
-        <v>340.6488078280769</v>
-      </c>
-    </row>
-    <row r="515" spans="1:3">
+        <v>0.001565919494462165</v>
+      </c>
+      <c r="D514">
+        <v>0.001105189591913113</v>
+      </c>
+    </row>
+    <row r="515" spans="1:4">
       <c r="A515" s="1">
         <v>513</v>
       </c>
       <c r="B515">
-        <v>0.001565919494462165</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C515">
-        <v>341.3709805796353</v>
-      </c>
-    </row>
-    <row r="516" spans="1:3">
+        <v>0.00827061869279877</v>
+      </c>
+      <c r="D515">
+        <v>0.005837210488973891</v>
+      </c>
+    </row>
+    <row r="516" spans="1:4">
       <c r="A516" s="1">
         <v>514</v>
       </c>
       <c r="B516">
-        <v>0.00827061869279877</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C516">
-        <v>342.0931533311936</v>
-      </c>
-    </row>
-    <row r="517" spans="1:3">
+        <v>0.003138472671310844</v>
+      </c>
+      <c r="D516">
+        <v>0.002215061082707721</v>
+      </c>
+    </row>
+    <row r="517" spans="1:4">
       <c r="A517" s="1">
         <v>515</v>
       </c>
       <c r="B517">
-        <v>0.003138472671310844</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C517">
-        <v>342.8153260827519</v>
-      </c>
-    </row>
-    <row r="518" spans="1:3">
+        <v>-0.001885875356695266</v>
+      </c>
+      <c r="D517">
+        <v>-0.001331007004661437</v>
+      </c>
+    </row>
+    <row r="518" spans="1:4">
       <c r="A518" s="1">
         <v>516</v>
       </c>
       <c r="B518">
-        <v>-0.001885875356695266</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C518">
-        <v>343.5374988343103</v>
-      </c>
-    </row>
-    <row r="519" spans="1:3">
+        <v>0.006437004173100114</v>
+      </c>
+      <c r="D518">
+        <v>0.004543087968679358</v>
+      </c>
+    </row>
+    <row r="519" spans="1:4">
       <c r="A519" s="1">
         <v>517</v>
       </c>
       <c r="B519">
-        <v>0.006437004173100114</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C519">
-        <v>344.2596715858686</v>
-      </c>
-    </row>
-    <row r="520" spans="1:3">
+        <v>0.01251708481281533</v>
+      </c>
+      <c r="D519">
+        <v>0.008834267601329391</v>
+      </c>
+    </row>
+    <row r="520" spans="1:4">
       <c r="A520" s="1">
         <v>518</v>
       </c>
       <c r="B520">
-        <v>0.01251708481281533</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C520">
-        <v>344.9818443374269</v>
-      </c>
-    </row>
-    <row r="521" spans="1:3">
+        <v>0.01170737515125264</v>
+      </c>
+      <c r="D520">
+        <v>0.008262793337425467</v>
+      </c>
+    </row>
+    <row r="521" spans="1:4">
       <c r="A521" s="1">
         <v>519</v>
       </c>
       <c r="B521">
-        <v>0.01170737515125264</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C521">
-        <v>345.7040170889853</v>
-      </c>
-    </row>
-    <row r="522" spans="1:3">
+        <v>-0.004403251610346715</v>
+      </c>
+      <c r="D521">
+        <v>-0.003107712668205387</v>
+      </c>
+    </row>
+    <row r="522" spans="1:4">
       <c r="A522" s="1">
         <v>520</v>
       </c>
       <c r="B522">
-        <v>-0.004403251610346715</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C522">
-        <v>346.4261898405436</v>
-      </c>
-    </row>
-    <row r="523" spans="1:3">
+        <v>-0.009412017209204038</v>
+      </c>
+      <c r="D522">
+        <v>-0.006642783039170308</v>
+      </c>
+    </row>
+    <row r="523" spans="1:4">
       <c r="A523" s="1">
         <v>521</v>
       </c>
       <c r="B523">
-        <v>-0.009412017209204038</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C523">
-        <v>347.1483625921019</v>
-      </c>
-    </row>
-    <row r="524" spans="1:3">
+        <v>0.01848696171782738</v>
+      </c>
+      <c r="D523">
+        <v>0.01304766799883061</v>
+      </c>
+    </row>
+    <row r="524" spans="1:4">
       <c r="A524" s="1">
         <v>522</v>
       </c>
       <c r="B524">
-        <v>0.01848696171782738</v>
+        <v>0.7221727515583259</v>
       </c>
       <c r="C524">
-        <v>347.8705353436603</v>
-      </c>
-    </row>
-    <row r="525" spans="1:3">
-      <c r="A525" s="1">
-        <v>523</v>
-      </c>
-      <c r="B525">
         <v>-0.01762765379837816</v>
       </c>
-      <c r="C525">
-        <v>348.5927080952186</v>
-      </c>
-    </row>
-    <row r="526" spans="1:3">
-      <c r="A526" s="1">
-        <v>524</v>
-      </c>
-      <c r="C526">
-        <v>349.3148808467769</v>
+      <c r="D524">
+        <v>-0.01244118843702531</v>
       </c>
     </row>
   </sheetData>
